--- a/HeartStripOffsets.xlsx
+++ b/HeartStripOffsets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LEDStripLocations.csv" sheetId="1" r:id="rId1"/>
@@ -1135,7 +1135,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="181">
+  <cellStyleXfs count="381">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1317,12 +1317,215 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="181">
+  <cellStyles count="381">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1413,6 +1616,106 @@
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1503,6 +1806,106 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1834,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W279"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="E44" workbookViewId="0">
+      <selection activeCell="W225" sqref="W225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1961,7 +2364,8 @@
         <v>5867</v>
       </c>
       <c r="R2">
-        <v>679</v>
+        <f>SQRT((I2-L2)^2 + (J2-M2)^2 + (K2-N2)^2) + SQRT((O2-L2)^2 + (P2-M2)^2 + (Q2-N2)^2)</f>
+        <v>679.27709407766315</v>
       </c>
       <c r="S2" t="s">
         <v>28</v>
@@ -2026,7 +2430,8 @@
         <v>5896</v>
       </c>
       <c r="R3">
-        <v>694</v>
+        <f t="shared" ref="R3:R66" si="0">SQRT((I3-L3)^2 + (J3-M3)^2 + (K3-N3)^2) + SQRT((O3-L3)^2 + (P3-M3)^2 + (Q3-N3)^2)</f>
+        <v>694.0340146337029</v>
       </c>
       <c r="S3" t="s">
         <v>28</v>
@@ -2091,7 +2496,8 @@
         <v>5948</v>
       </c>
       <c r="R4">
-        <v>735</v>
+        <f t="shared" si="0"/>
+        <v>734.54979869291003</v>
       </c>
       <c r="S4" t="s">
         <v>28</v>
@@ -2156,7 +2562,8 @@
         <v>5982</v>
       </c>
       <c r="R5">
-        <v>770</v>
+        <f t="shared" si="0"/>
+        <v>769.63928597580502</v>
       </c>
       <c r="S5" t="s">
         <v>28</v>
@@ -2221,7 +2628,8 @@
         <v>6022</v>
       </c>
       <c r="R6">
-        <v>821</v>
+        <f t="shared" si="0"/>
+        <v>821.14409813632824</v>
       </c>
       <c r="S6" t="s">
         <v>28</v>
@@ -2286,7 +2694,8 @@
         <v>6043</v>
       </c>
       <c r="R7">
-        <v>614</v>
+        <f t="shared" si="0"/>
+        <v>614.08503747124587</v>
       </c>
       <c r="S7" t="s">
         <v>28</v>
@@ -2351,7 +2760,8 @@
         <v>6058</v>
       </c>
       <c r="R8">
-        <v>890</v>
+        <f t="shared" si="0"/>
+        <v>890.05172374097424</v>
       </c>
       <c r="S8" t="s">
         <v>28</v>
@@ -2416,7 +2826,8 @@
         <v>6071</v>
       </c>
       <c r="R9">
-        <v>697</v>
+        <f t="shared" si="0"/>
+        <v>696.69591626200531</v>
       </c>
       <c r="S9" t="s">
         <v>28</v>
@@ -2481,7 +2892,8 @@
         <v>6068</v>
       </c>
       <c r="R10">
-        <v>970</v>
+        <f t="shared" si="0"/>
+        <v>969.77974476591021</v>
       </c>
       <c r="S10" t="s">
         <v>28</v>
@@ -2546,7 +2958,8 @@
         <v>6056</v>
       </c>
       <c r="R11">
-        <v>741</v>
+        <f t="shared" si="0"/>
+        <v>741.3513938000433</v>
       </c>
       <c r="S11" t="s">
         <v>28</v>
@@ -2611,7 +3024,8 @@
         <v>6040</v>
       </c>
       <c r="R12">
-        <v>1009</v>
+        <f t="shared" si="0"/>
+        <v>1009.0038145526211</v>
       </c>
       <c r="S12" t="s">
         <v>28</v>
@@ -2676,7 +3090,8 @@
         <v>6007</v>
       </c>
       <c r="R13">
-        <v>1004</v>
+        <f t="shared" si="0"/>
+        <v>1003.5533613111446</v>
       </c>
       <c r="S13" t="s">
         <v>28</v>
@@ -2741,7 +3156,8 @@
         <v>5962</v>
       </c>
       <c r="R14">
-        <v>967</v>
+        <f t="shared" si="0"/>
+        <v>966.52598784032386</v>
       </c>
       <c r="S14" t="s">
         <v>28</v>
@@ -2806,7 +3222,8 @@
         <v>5929</v>
       </c>
       <c r="R15">
-        <v>988</v>
+        <f t="shared" si="0"/>
+        <v>988.3265412975245</v>
       </c>
       <c r="S15" t="s">
         <v>28</v>
@@ -2871,7 +3288,8 @@
         <v>5895</v>
       </c>
       <c r="R16">
-        <v>992</v>
+        <f t="shared" si="0"/>
+        <v>992.14459480026949</v>
       </c>
       <c r="S16" t="s">
         <v>28</v>
@@ -2936,7 +3354,8 @@
         <v>5863</v>
       </c>
       <c r="R17">
-        <v>805</v>
+        <f t="shared" si="0"/>
+        <v>804.59934872265535</v>
       </c>
       <c r="S17" t="s">
         <v>28</v>
@@ -3001,7 +3420,8 @@
         <v>5827</v>
       </c>
       <c r="R18">
-        <v>918</v>
+        <f t="shared" si="0"/>
+        <v>917.98878066404018</v>
       </c>
       <c r="S18" t="s">
         <v>28</v>
@@ -3066,7 +3486,8 @@
         <v>5772</v>
       </c>
       <c r="R19">
-        <v>843</v>
+        <f t="shared" si="0"/>
+        <v>842.78295500518175</v>
       </c>
       <c r="S19" t="s">
         <v>28</v>
@@ -3131,7 +3552,8 @@
         <v>5723</v>
       </c>
       <c r="R20">
-        <v>1094</v>
+        <f t="shared" si="0"/>
+        <v>1094.1132011302855</v>
       </c>
       <c r="S20" t="s">
         <v>28</v>
@@ -3196,7 +3618,8 @@
         <v>5695</v>
       </c>
       <c r="R21">
-        <v>732</v>
+        <f t="shared" si="0"/>
+        <v>731.77330538045703</v>
       </c>
       <c r="S21" t="s">
         <v>28</v>
@@ -3261,7 +3684,8 @@
         <v>5695</v>
       </c>
       <c r="R22">
-        <v>1006</v>
+        <f t="shared" si="0"/>
+        <v>1005.8717177736241</v>
       </c>
       <c r="S22" t="s">
         <v>28</v>
@@ -3326,7 +3750,8 @@
         <v>5660</v>
       </c>
       <c r="R23">
-        <v>1002</v>
+        <f t="shared" si="0"/>
+        <v>1002.0910982970693</v>
       </c>
       <c r="S23" t="s">
         <v>28</v>
@@ -3391,7 +3816,8 @@
         <v>5625</v>
       </c>
       <c r="R24">
-        <v>820</v>
+        <f t="shared" si="0"/>
+        <v>820.13729521825258</v>
       </c>
       <c r="S24" t="s">
         <v>28</v>
@@ -3456,7 +3882,8 @@
         <v>5583</v>
       </c>
       <c r="R25">
-        <v>823</v>
+        <f t="shared" si="0"/>
+        <v>822.5400984428984</v>
       </c>
       <c r="S25" t="s">
         <v>28</v>
@@ -3521,7 +3948,8 @@
         <v>5519</v>
       </c>
       <c r="R26">
-        <v>1074</v>
+        <f t="shared" si="0"/>
+        <v>1073.8346467243559</v>
       </c>
       <c r="S26" t="s">
         <v>28</v>
@@ -3586,7 +4014,8 @@
         <v>5478</v>
       </c>
       <c r="R27">
-        <v>983</v>
+        <f t="shared" si="0"/>
+        <v>982.95116082524623</v>
       </c>
       <c r="S27" t="s">
         <v>28</v>
@@ -3651,7 +4080,8 @@
         <v>5427</v>
       </c>
       <c r="R28">
-        <v>789</v>
+        <f t="shared" si="0"/>
+        <v>789.31296332663123</v>
       </c>
       <c r="S28" t="s">
         <v>28</v>
@@ -3716,7 +4146,8 @@
         <v>5384</v>
       </c>
       <c r="R29">
-        <v>968</v>
+        <f t="shared" si="0"/>
+        <v>967.93080716701672</v>
       </c>
       <c r="S29" t="s">
         <v>28</v>
@@ -3781,7 +4212,8 @@
         <v>5333</v>
       </c>
       <c r="R30">
-        <v>753</v>
+        <f t="shared" si="0"/>
+        <v>753.09145713824296</v>
       </c>
       <c r="S30" t="s">
         <v>28</v>
@@ -3846,7 +4278,8 @@
         <v>5261</v>
       </c>
       <c r="R31">
-        <v>1014</v>
+        <f t="shared" si="0"/>
+        <v>1014.2770844899426</v>
       </c>
       <c r="S31" t="s">
         <v>28</v>
@@ -3911,7 +4344,8 @@
         <v>5229</v>
       </c>
       <c r="R32">
-        <v>864</v>
+        <f t="shared" si="0"/>
+        <v>864.30991742183005</v>
       </c>
       <c r="S32" t="s">
         <v>28</v>
@@ -3976,7 +4410,8 @@
         <v>5184</v>
       </c>
       <c r="R33">
-        <v>1230</v>
+        <f t="shared" si="0"/>
+        <v>757.26702614209125</v>
       </c>
       <c r="S33" t="s">
         <v>28</v>
@@ -4041,7 +4476,8 @@
         <v>5140</v>
       </c>
       <c r="R34">
-        <v>878</v>
+        <f t="shared" si="0"/>
+        <v>878.08925535484786</v>
       </c>
       <c r="S34" t="s">
         <v>28</v>
@@ -4106,7 +4542,8 @@
         <v>5099</v>
       </c>
       <c r="R35">
-        <v>915</v>
+        <f t="shared" si="0"/>
+        <v>915.4235535702586</v>
       </c>
       <c r="S35" t="s">
         <v>28</v>
@@ -4171,7 +4608,8 @@
         <v>5054</v>
       </c>
       <c r="R36">
-        <v>867</v>
+        <f t="shared" si="0"/>
+        <v>867.05479927777219</v>
       </c>
       <c r="S36" t="s">
         <v>28</v>
@@ -4236,7 +4674,8 @@
         <v>5016</v>
       </c>
       <c r="R37">
-        <v>802</v>
+        <f t="shared" si="0"/>
+        <v>802.34363741025413</v>
       </c>
       <c r="S37" t="s">
         <v>28</v>
@@ -4301,7 +4740,8 @@
         <v>4970</v>
       </c>
       <c r="R38">
-        <v>852</v>
+        <f t="shared" si="0"/>
+        <v>851.96829344226001</v>
       </c>
       <c r="S38" t="s">
         <v>28</v>
@@ -4366,7 +4806,8 @@
         <v>4927</v>
       </c>
       <c r="R39">
-        <v>797</v>
+        <f t="shared" si="0"/>
+        <v>796.75129888713082</v>
       </c>
       <c r="S39" t="s">
         <v>28</v>
@@ -4431,7 +4872,8 @@
         <v>4887</v>
       </c>
       <c r="R40">
-        <v>939</v>
+        <f t="shared" si="0"/>
+        <v>938.82031243355868</v>
       </c>
       <c r="S40" t="s">
         <v>28</v>
@@ -4496,7 +4938,8 @@
         <v>4861</v>
       </c>
       <c r="R41">
-        <v>856</v>
+        <f t="shared" si="0"/>
+        <v>855.77123873926507</v>
       </c>
       <c r="S41" t="s">
         <v>28</v>
@@ -4561,7 +5004,8 @@
         <v>4816</v>
       </c>
       <c r="R42">
-        <v>729</v>
+        <f t="shared" si="0"/>
+        <v>728.6619896648449</v>
       </c>
       <c r="S42" t="s">
         <v>28</v>
@@ -4626,7 +5070,8 @@
         <v>4774</v>
       </c>
       <c r="R43">
-        <v>674</v>
+        <f t="shared" si="0"/>
+        <v>674.35073402133719</v>
       </c>
       <c r="S43" t="s">
         <v>28</v>
@@ -4691,7 +5136,8 @@
         <v>4738</v>
       </c>
       <c r="R44">
-        <v>949</v>
+        <f t="shared" si="0"/>
+        <v>949.06610028748173</v>
       </c>
       <c r="S44" t="s">
         <v>28</v>
@@ -4756,7 +5202,8 @@
         <v>4711</v>
       </c>
       <c r="R45">
-        <v>886</v>
+        <f t="shared" si="0"/>
+        <v>886.15631418600697</v>
       </c>
       <c r="S45" t="s">
         <v>28</v>
@@ -4821,7 +5268,8 @@
         <v>4671</v>
       </c>
       <c r="R46">
-        <v>723</v>
+        <f t="shared" si="0"/>
+        <v>723.15251864097127</v>
       </c>
       <c r="S46" t="s">
         <v>28</v>
@@ -4886,7 +5334,8 @@
         <v>4641</v>
       </c>
       <c r="R47">
-        <v>716</v>
+        <f t="shared" si="0"/>
+        <v>715.77012552548013</v>
       </c>
       <c r="S47" t="s">
         <v>28</v>
@@ -4951,7 +5400,8 @@
         <v>4613</v>
       </c>
       <c r="R48">
-        <v>982</v>
+        <f t="shared" si="0"/>
+        <v>981.50594604907974</v>
       </c>
       <c r="S48" t="s">
         <v>28</v>
@@ -5016,7 +5466,8 @@
         <v>4590</v>
       </c>
       <c r="R49">
-        <v>920</v>
+        <f t="shared" si="0"/>
+        <v>920.26160600382354</v>
       </c>
       <c r="S49" t="s">
         <v>28</v>
@@ -5081,7 +5532,8 @@
         <v>4555</v>
       </c>
       <c r="R50">
-        <v>808</v>
+        <f t="shared" si="0"/>
+        <v>808.34692636862087</v>
       </c>
       <c r="S50" t="s">
         <v>28</v>
@@ -5146,7 +5598,8 @@
         <v>4489</v>
       </c>
       <c r="R51">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>1000.4714308064631</v>
       </c>
       <c r="S51" t="s">
         <v>28</v>
@@ -5211,7 +5664,8 @@
         <v>4435</v>
       </c>
       <c r="R52">
-        <v>1019</v>
+        <f t="shared" si="0"/>
+        <v>1018.6128704973108</v>
       </c>
       <c r="S52" t="s">
         <v>28</v>
@@ -5276,7 +5730,8 @@
         <v>4405</v>
       </c>
       <c r="R53">
-        <v>1033</v>
+        <f t="shared" si="0"/>
+        <v>1032.8129674634424</v>
       </c>
       <c r="S53" t="s">
         <v>28</v>
@@ -5341,7 +5796,8 @@
         <v>4368</v>
       </c>
       <c r="R54">
-        <v>1044</v>
+        <f t="shared" si="0"/>
+        <v>1043.6710566147365</v>
       </c>
       <c r="S54" t="s">
         <v>28</v>
@@ -5406,7 +5862,8 @@
         <v>4323</v>
       </c>
       <c r="R55">
-        <v>1062</v>
+        <f t="shared" si="0"/>
+        <v>1061.5974013038606</v>
       </c>
       <c r="S55" t="s">
         <v>28</v>
@@ -5471,7 +5928,8 @@
         <v>4301</v>
       </c>
       <c r="R56">
-        <v>1064</v>
+        <f t="shared" si="0"/>
+        <v>1064.2697132776163</v>
       </c>
       <c r="S56" t="s">
         <v>28</v>
@@ -5536,7 +5994,8 @@
         <v>4259</v>
       </c>
       <c r="R57">
-        <v>1087</v>
+        <f t="shared" si="0"/>
+        <v>1086.8948133235681</v>
       </c>
       <c r="S57" t="s">
         <v>28</v>
@@ -5601,7 +6060,8 @@
         <v>5867</v>
       </c>
       <c r="R58">
-        <v>340</v>
+        <f t="shared" si="0"/>
+        <v>339.56724299955329</v>
       </c>
       <c r="S58" t="s">
         <v>28</v>
@@ -5666,7 +6126,8 @@
         <v>5896</v>
       </c>
       <c r="R59">
-        <v>362</v>
+        <f t="shared" si="0"/>
+        <v>362.03253468431421</v>
       </c>
       <c r="S59" t="s">
         <v>28</v>
@@ -5731,7 +6192,8 @@
         <v>5948</v>
       </c>
       <c r="R60">
-        <v>407</v>
+        <f t="shared" si="0"/>
+        <v>407.35513082268284</v>
       </c>
       <c r="S60" t="s">
         <v>28</v>
@@ -5796,7 +6258,8 @@
         <v>5982</v>
       </c>
       <c r="R61">
-        <v>443</v>
+        <f t="shared" si="0"/>
+        <v>442.50687662790187</v>
       </c>
       <c r="S61" t="s">
         <v>28</v>
@@ -5861,7 +6324,8 @@
         <v>6022</v>
       </c>
       <c r="R62">
-        <v>487</v>
+        <f t="shared" si="0"/>
+        <v>486.855928779691</v>
       </c>
       <c r="S62" t="s">
         <v>28</v>
@@ -5926,7 +6390,8 @@
         <v>6043</v>
       </c>
       <c r="R63">
-        <v>532</v>
+        <f t="shared" si="0"/>
+        <v>531.66125673298654</v>
       </c>
       <c r="S63" t="s">
         <v>28</v>
@@ -5991,7 +6456,8 @@
         <v>6058</v>
       </c>
       <c r="R64">
-        <v>544</v>
+        <f t="shared" si="0"/>
+        <v>543.51346319161576</v>
       </c>
       <c r="S64" t="s">
         <v>28</v>
@@ -6056,7 +6522,8 @@
         <v>6071</v>
       </c>
       <c r="R65">
-        <v>600</v>
+        <f t="shared" si="0"/>
+        <v>599.86432425720159</v>
       </c>
       <c r="S65" t="s">
         <v>28</v>
@@ -6121,7 +6588,8 @@
         <v>6068</v>
       </c>
       <c r="R66">
-        <v>617</v>
+        <f t="shared" si="0"/>
+        <v>616.9738607252732</v>
       </c>
       <c r="S66" t="s">
         <v>28</v>
@@ -6186,7 +6654,8 @@
         <v>6056</v>
       </c>
       <c r="R67">
-        <v>653</v>
+        <f t="shared" ref="R67:R130" si="1">SQRT((I67-L67)^2 + (J67-M67)^2 + (K67-N67)^2) + SQRT((O67-L67)^2 + (P67-M67)^2 + (Q67-N67)^2)</f>
+        <v>652.57861938422411</v>
       </c>
       <c r="S67" t="s">
         <v>28</v>
@@ -6251,7 +6720,8 @@
         <v>6040</v>
       </c>
       <c r="R68">
-        <v>659</v>
+        <f t="shared" si="1"/>
+        <v>659.18971988818816</v>
       </c>
       <c r="S68" t="s">
         <v>28</v>
@@ -6316,7 +6786,8 @@
         <v>6007</v>
       </c>
       <c r="R69">
-        <v>677</v>
+        <f t="shared" si="1"/>
+        <v>677.42358825754741</v>
       </c>
       <c r="S69" t="s">
         <v>28</v>
@@ -6381,7 +6852,8 @@
         <v>5962</v>
       </c>
       <c r="R70">
-        <v>700</v>
+        <f t="shared" si="1"/>
+        <v>700.21519786273757</v>
       </c>
       <c r="S70" t="s">
         <v>28</v>
@@ -6446,7 +6918,8 @@
         <v>5929</v>
       </c>
       <c r="R71">
-        <v>712</v>
+        <f t="shared" si="1"/>
+        <v>711.73181696651648</v>
       </c>
       <c r="S71" t="s">
         <v>28</v>
@@ -6511,7 +6984,8 @@
         <v>5895</v>
       </c>
       <c r="R72">
-        <v>1265</v>
+        <f t="shared" si="1"/>
+        <v>758.51496701224596</v>
       </c>
       <c r="S72" t="s">
         <v>28</v>
@@ -6576,7 +7050,8 @@
         <v>5863</v>
       </c>
       <c r="R73">
-        <v>740</v>
+        <f t="shared" si="1"/>
+        <v>739.94888008819498</v>
       </c>
       <c r="S73" t="s">
         <v>28</v>
@@ -6641,7 +7116,8 @@
         <v>5827</v>
       </c>
       <c r="R74">
-        <v>738</v>
+        <f t="shared" si="1"/>
+        <v>738.36970607190676</v>
       </c>
       <c r="S74" t="s">
         <v>28</v>
@@ -6706,7 +7182,8 @@
         <v>5772</v>
       </c>
       <c r="R75">
-        <v>751</v>
+        <f t="shared" si="1"/>
+        <v>751.36801447026244</v>
       </c>
       <c r="S75" t="s">
         <v>28</v>
@@ -6771,7 +7248,8 @@
         <v>5723</v>
       </c>
       <c r="R76">
-        <v>745</v>
+        <f t="shared" si="1"/>
+        <v>745.03941909688069</v>
       </c>
       <c r="S76" t="s">
         <v>28</v>
@@ -6836,7 +7314,8 @@
         <v>5709</v>
       </c>
       <c r="R77">
-        <v>766</v>
+        <f t="shared" si="1"/>
+        <v>765.86422248845236</v>
       </c>
       <c r="S77" t="s">
         <v>28</v>
@@ -6901,7 +7380,8 @@
         <v>5695</v>
       </c>
       <c r="R78">
-        <v>750</v>
+        <f t="shared" si="1"/>
+        <v>749.67525502626575</v>
       </c>
       <c r="S78" t="s">
         <v>28</v>
@@ -6966,7 +7446,8 @@
         <v>5660</v>
       </c>
       <c r="R79">
-        <v>759</v>
+        <f t="shared" si="1"/>
+        <v>758.75543893758936</v>
       </c>
       <c r="S79" t="s">
         <v>28</v>
@@ -7031,7 +7512,8 @@
         <v>5625</v>
       </c>
       <c r="R80">
-        <v>757</v>
+        <f t="shared" si="1"/>
+        <v>757.02425379618717</v>
       </c>
       <c r="S80" t="s">
         <v>28</v>
@@ -7096,7 +7578,8 @@
         <v>5583</v>
       </c>
       <c r="R81">
-        <v>741</v>
+        <f t="shared" si="1"/>
+        <v>740.68365506256464</v>
       </c>
       <c r="S81" t="s">
         <v>28</v>
@@ -7161,7 +7644,8 @@
         <v>5519</v>
       </c>
       <c r="R82">
-        <v>737</v>
+        <f t="shared" si="1"/>
+        <v>737.06117107859563</v>
       </c>
       <c r="S82" t="s">
         <v>28</v>
@@ -7226,7 +7710,8 @@
         <v>5478</v>
       </c>
       <c r="R83">
-        <v>743</v>
+        <f t="shared" si="1"/>
+        <v>743.3449723875832</v>
       </c>
       <c r="S83" t="s">
         <v>28</v>
@@ -7291,7 +7776,8 @@
         <v>5427</v>
       </c>
       <c r="R84">
-        <v>728</v>
+        <f t="shared" si="1"/>
+        <v>727.75303921068166</v>
       </c>
       <c r="S84" t="s">
         <v>28</v>
@@ -7356,7 +7842,8 @@
         <v>5384</v>
       </c>
       <c r="R85">
-        <v>733</v>
+        <f t="shared" si="1"/>
+        <v>733.22821275423928</v>
       </c>
       <c r="S85" t="s">
         <v>28</v>
@@ -7421,7 +7908,8 @@
         <v>5333</v>
       </c>
       <c r="R86">
-        <v>705</v>
+        <f t="shared" si="1"/>
+        <v>705.3414131837601</v>
       </c>
       <c r="S86" t="s">
         <v>28</v>
@@ -7486,7 +7974,8 @@
         <v>5261</v>
       </c>
       <c r="R87">
-        <v>685</v>
+        <f t="shared" si="1"/>
+        <v>684.63001845666054</v>
       </c>
       <c r="S87" t="s">
         <v>28</v>
@@ -7551,7 +8040,8 @@
         <v>5229</v>
       </c>
       <c r="R88">
-        <v>683</v>
+        <f t="shared" si="1"/>
+        <v>683.30965801909201</v>
       </c>
       <c r="S88" t="s">
         <v>28</v>
@@ -7616,7 +8106,8 @@
         <v>5184</v>
       </c>
       <c r="R89">
-        <v>1258</v>
+        <f t="shared" si="1"/>
+        <v>661.57283790508484</v>
       </c>
       <c r="S89" t="s">
         <v>28</v>
@@ -7681,7 +8172,8 @@
         <v>5140</v>
       </c>
       <c r="R90">
-        <v>650</v>
+        <f t="shared" si="1"/>
+        <v>649.72110394924596</v>
       </c>
       <c r="S90" t="s">
         <v>28</v>
@@ -7746,7 +8238,8 @@
         <v>5099</v>
       </c>
       <c r="R91">
-        <v>643</v>
+        <f t="shared" si="1"/>
+        <v>642.99821564788044</v>
       </c>
       <c r="S91" t="s">
         <v>28</v>
@@ -7811,7 +8304,8 @@
         <v>5054</v>
       </c>
       <c r="R92">
-        <v>638</v>
+        <f t="shared" si="1"/>
+        <v>637.64094118970638</v>
       </c>
       <c r="S92" t="s">
         <v>28</v>
@@ -7876,7 +8370,8 @@
         <v>5016</v>
       </c>
       <c r="R93">
-        <v>633</v>
+        <f t="shared" si="1"/>
+        <v>632.53366050115267</v>
       </c>
       <c r="S93" t="s">
         <v>28</v>
@@ -7941,7 +8436,8 @@
         <v>4970</v>
       </c>
       <c r="R94">
-        <v>629</v>
+        <f t="shared" si="1"/>
+        <v>628.94028786459785</v>
       </c>
       <c r="S94" t="s">
         <v>28</v>
@@ -8006,7 +8502,8 @@
         <v>4927</v>
       </c>
       <c r="R95">
-        <v>621</v>
+        <f t="shared" si="1"/>
+        <v>620.94342015634948</v>
       </c>
       <c r="S95" t="s">
         <v>28</v>
@@ -8071,7 +8568,8 @@
         <v>4887</v>
       </c>
       <c r="R96">
-        <v>621</v>
+        <f t="shared" si="1"/>
+        <v>620.83965916858494</v>
       </c>
       <c r="S96" t="s">
         <v>28</v>
@@ -8136,7 +8634,8 @@
         <v>4861</v>
       </c>
       <c r="R97">
-        <v>631</v>
+        <f t="shared" si="1"/>
+        <v>630.57050587539538</v>
       </c>
       <c r="S97" t="s">
         <v>28</v>
@@ -8201,7 +8700,8 @@
         <v>4816</v>
       </c>
       <c r="R98">
-        <v>627</v>
+        <f t="shared" si="1"/>
+        <v>626.9894877193617</v>
       </c>
       <c r="S98" t="s">
         <v>28</v>
@@ -8266,7 +8766,8 @@
         <v>4774</v>
       </c>
       <c r="R99">
-        <v>593</v>
+        <f t="shared" si="1"/>
+        <v>592.82423486141806</v>
       </c>
       <c r="S99" t="s">
         <v>28</v>
@@ -8331,7 +8832,8 @@
         <v>4738</v>
       </c>
       <c r="R100">
-        <v>575</v>
+        <f t="shared" si="1"/>
+        <v>574.73903221658907</v>
       </c>
       <c r="S100" t="s">
         <v>28</v>
@@ -8396,7 +8898,8 @@
         <v>4711</v>
       </c>
       <c r="R101">
-        <v>546</v>
+        <f t="shared" si="1"/>
+        <v>546.08627657363695</v>
       </c>
       <c r="S101" t="s">
         <v>28</v>
@@ -8461,7 +8964,8 @@
         <v>4671</v>
       </c>
       <c r="R102">
-        <v>508</v>
+        <f t="shared" si="1"/>
+        <v>507.79497163647409</v>
       </c>
       <c r="S102" t="s">
         <v>28</v>
@@ -8526,7 +9030,8 @@
         <v>4641</v>
       </c>
       <c r="R103">
-        <v>466</v>
+        <f t="shared" si="1"/>
+        <v>466.45761809830765</v>
       </c>
       <c r="S103" t="s">
         <v>28</v>
@@ -8591,7 +9096,8 @@
         <v>4613</v>
       </c>
       <c r="R104">
-        <v>426</v>
+        <f t="shared" si="1"/>
+        <v>426.49807035985816</v>
       </c>
       <c r="S104" t="s">
         <v>28</v>
@@ -8656,7 +9162,8 @@
         <v>4590</v>
       </c>
       <c r="R105">
-        <v>404</v>
+        <f t="shared" si="1"/>
+        <v>403.52281682270376</v>
       </c>
       <c r="S105" t="s">
         <v>28</v>
@@ -8721,7 +9228,8 @@
         <v>4555</v>
       </c>
       <c r="R106">
-        <v>408</v>
+        <f t="shared" si="1"/>
+        <v>408.01151341768116</v>
       </c>
       <c r="S106" t="s">
         <v>28</v>
@@ -8786,7 +9294,8 @@
         <v>4489</v>
       </c>
       <c r="R107">
-        <v>376</v>
+        <f t="shared" si="1"/>
+        <v>376.33216043252622</v>
       </c>
       <c r="S107" t="s">
         <v>28</v>
@@ -8851,7 +9360,8 @@
         <v>4435</v>
       </c>
       <c r="R108">
-        <v>372</v>
+        <f t="shared" si="1"/>
+        <v>371.79451017796958</v>
       </c>
       <c r="S108" t="s">
         <v>28</v>
@@ -8916,7 +9426,8 @@
         <v>4405</v>
       </c>
       <c r="R109">
-        <v>345</v>
+        <f t="shared" si="1"/>
+        <v>344.82746536047182</v>
       </c>
       <c r="S109" t="s">
         <v>28</v>
@@ -8981,7 +9492,8 @@
         <v>4368</v>
       </c>
       <c r="R110">
-        <v>353</v>
+        <f t="shared" si="1"/>
+        <v>352.75665496964183</v>
       </c>
       <c r="S110" t="s">
         <v>28</v>
@@ -9046,7 +9558,8 @@
         <v>4323</v>
       </c>
       <c r="R111">
-        <v>366</v>
+        <f t="shared" si="1"/>
+        <v>366.18547018341235</v>
       </c>
       <c r="S111" t="s">
         <v>28</v>
@@ -9111,7 +9624,8 @@
         <v>4301</v>
       </c>
       <c r="R112">
-        <v>374</v>
+        <f t="shared" si="1"/>
+        <v>374.32576277035304</v>
       </c>
       <c r="S112" t="s">
         <v>28</v>
@@ -9176,7 +9690,8 @@
         <v>4259</v>
       </c>
       <c r="R113">
-        <v>404</v>
+        <f t="shared" si="1"/>
+        <v>404.44589542344374</v>
       </c>
       <c r="S113" t="s">
         <v>28</v>
@@ -9241,7 +9756,8 @@
         <v>5867</v>
       </c>
       <c r="R114">
-        <v>679</v>
+        <f t="shared" si="1"/>
+        <v>679.27709407766315</v>
       </c>
       <c r="S114" t="s">
         <v>28</v>
@@ -9306,7 +9822,8 @@
         <v>5896</v>
       </c>
       <c r="R115">
-        <v>694</v>
+        <f t="shared" si="1"/>
+        <v>694.0340146337029</v>
       </c>
       <c r="S115" t="s">
         <v>28</v>
@@ -9371,7 +9888,8 @@
         <v>5948</v>
       </c>
       <c r="R116">
-        <v>735</v>
+        <f t="shared" si="1"/>
+        <v>734.54979869291003</v>
       </c>
       <c r="S116" t="s">
         <v>28</v>
@@ -9436,7 +9954,8 @@
         <v>5982</v>
       </c>
       <c r="R117">
-        <v>770</v>
+        <f t="shared" si="1"/>
+        <v>769.63928597580502</v>
       </c>
       <c r="S117" t="s">
         <v>28</v>
@@ -9501,7 +10020,8 @@
         <v>6022</v>
       </c>
       <c r="R118">
-        <v>821</v>
+        <f t="shared" si="1"/>
+        <v>821.14409813632824</v>
       </c>
       <c r="S118" t="s">
         <v>28</v>
@@ -9566,7 +10086,8 @@
         <v>6043</v>
       </c>
       <c r="R119">
-        <v>614</v>
+        <f t="shared" si="1"/>
+        <v>614.08503747124587</v>
       </c>
       <c r="S119" t="s">
         <v>28</v>
@@ -9631,7 +10152,8 @@
         <v>6058</v>
       </c>
       <c r="R120">
-        <v>890</v>
+        <f t="shared" si="1"/>
+        <v>890.05172374097424</v>
       </c>
       <c r="S120" t="s">
         <v>28</v>
@@ -9696,7 +10218,8 @@
         <v>6071</v>
       </c>
       <c r="R121">
-        <v>697</v>
+        <f t="shared" si="1"/>
+        <v>696.69591626200531</v>
       </c>
       <c r="S121" t="s">
         <v>28</v>
@@ -9761,7 +10284,8 @@
         <v>6068</v>
       </c>
       <c r="R122">
-        <v>970</v>
+        <f t="shared" si="1"/>
+        <v>969.77974476591021</v>
       </c>
       <c r="S122" t="s">
         <v>28</v>
@@ -9826,7 +10350,8 @@
         <v>6056</v>
       </c>
       <c r="R123">
-        <v>741</v>
+        <f t="shared" si="1"/>
+        <v>741.3513938000433</v>
       </c>
       <c r="S123" t="s">
         <v>28</v>
@@ -9891,7 +10416,8 @@
         <v>6040</v>
       </c>
       <c r="R124">
-        <v>1009</v>
+        <f t="shared" si="1"/>
+        <v>1009.0038145526211</v>
       </c>
       <c r="S124" t="s">
         <v>28</v>
@@ -9956,7 +10482,8 @@
         <v>6007</v>
       </c>
       <c r="R125">
-        <v>1004</v>
+        <f t="shared" si="1"/>
+        <v>1003.5533613111446</v>
       </c>
       <c r="S125" t="s">
         <v>28</v>
@@ -10021,7 +10548,8 @@
         <v>5962</v>
       </c>
       <c r="R126">
-        <v>967</v>
+        <f t="shared" si="1"/>
+        <v>966.52598784032386</v>
       </c>
       <c r="S126" t="s">
         <v>28</v>
@@ -10086,7 +10614,8 @@
         <v>5929</v>
       </c>
       <c r="R127">
-        <v>988</v>
+        <f t="shared" si="1"/>
+        <v>988.3265412975245</v>
       </c>
       <c r="S127" t="s">
         <v>28</v>
@@ -10151,7 +10680,8 @@
         <v>5895</v>
       </c>
       <c r="R128">
-        <v>992</v>
+        <f t="shared" si="1"/>
+        <v>992.14459480026949</v>
       </c>
       <c r="S128" t="s">
         <v>28</v>
@@ -10216,7 +10746,8 @@
         <v>5863</v>
       </c>
       <c r="R129">
-        <v>805</v>
+        <f t="shared" si="1"/>
+        <v>804.59934872265535</v>
       </c>
       <c r="S129" t="s">
         <v>28</v>
@@ -10281,7 +10812,8 @@
         <v>5827</v>
       </c>
       <c r="R130">
-        <v>918</v>
+        <f t="shared" si="1"/>
+        <v>917.98878066404018</v>
       </c>
       <c r="S130" t="s">
         <v>28</v>
@@ -10346,7 +10878,8 @@
         <v>5772</v>
       </c>
       <c r="R131">
-        <v>843</v>
+        <f t="shared" ref="R131:R194" si="2">SQRT((I131-L131)^2 + (J131-M131)^2 + (K131-N131)^2) + SQRT((O131-L131)^2 + (P131-M131)^2 + (Q131-N131)^2)</f>
+        <v>842.78295500518175</v>
       </c>
       <c r="S131" t="s">
         <v>28</v>
@@ -10411,7 +10944,8 @@
         <v>5723</v>
       </c>
       <c r="R132">
-        <v>1094</v>
+        <f t="shared" si="2"/>
+        <v>1094.1132011302855</v>
       </c>
       <c r="S132" t="s">
         <v>28</v>
@@ -10476,7 +11010,8 @@
         <v>5695</v>
       </c>
       <c r="R133">
-        <v>732</v>
+        <f t="shared" si="2"/>
+        <v>731.77330538045703</v>
       </c>
       <c r="S133" t="s">
         <v>28</v>
@@ -10541,7 +11076,8 @@
         <v>5695</v>
       </c>
       <c r="R134">
-        <v>1006</v>
+        <f t="shared" si="2"/>
+        <v>1005.8717177736241</v>
       </c>
       <c r="S134" t="s">
         <v>28</v>
@@ -10606,7 +11142,8 @@
         <v>5660</v>
       </c>
       <c r="R135">
-        <v>1002</v>
+        <f t="shared" si="2"/>
+        <v>1002.0910982970693</v>
       </c>
       <c r="S135" t="s">
         <v>28</v>
@@ -10671,7 +11208,8 @@
         <v>5625</v>
       </c>
       <c r="R136">
-        <v>820</v>
+        <f t="shared" si="2"/>
+        <v>820.13729521825258</v>
       </c>
       <c r="S136" t="s">
         <v>28</v>
@@ -10736,7 +11274,8 @@
         <v>5583</v>
       </c>
       <c r="R137">
-        <v>823</v>
+        <f t="shared" si="2"/>
+        <v>822.5400984428984</v>
       </c>
       <c r="S137" t="s">
         <v>28</v>
@@ -10801,7 +11340,8 @@
         <v>5519</v>
       </c>
       <c r="R138">
-        <v>1074</v>
+        <f t="shared" si="2"/>
+        <v>1073.8346467243559</v>
       </c>
       <c r="S138" t="s">
         <v>28</v>
@@ -10866,7 +11406,8 @@
         <v>5478</v>
       </c>
       <c r="R139">
-        <v>983</v>
+        <f t="shared" si="2"/>
+        <v>982.95116082524623</v>
       </c>
       <c r="S139" t="s">
         <v>28</v>
@@ -10931,7 +11472,8 @@
         <v>5427</v>
       </c>
       <c r="R140">
-        <v>789</v>
+        <f t="shared" si="2"/>
+        <v>789.31296332663123</v>
       </c>
       <c r="S140" t="s">
         <v>28</v>
@@ -10996,7 +11538,8 @@
         <v>5384</v>
       </c>
       <c r="R141">
-        <v>968</v>
+        <f t="shared" si="2"/>
+        <v>967.93080716701672</v>
       </c>
       <c r="S141" t="s">
         <v>28</v>
@@ -11061,7 +11604,8 @@
         <v>5333</v>
       </c>
       <c r="R142">
-        <v>753</v>
+        <f t="shared" si="2"/>
+        <v>753.09145713824296</v>
       </c>
       <c r="S142" t="s">
         <v>28</v>
@@ -11126,7 +11670,8 @@
         <v>5261</v>
       </c>
       <c r="R143">
-        <v>1014</v>
+        <f t="shared" si="2"/>
+        <v>1014.2770844899426</v>
       </c>
       <c r="S143" t="s">
         <v>28</v>
@@ -11191,7 +11736,8 @@
         <v>5229</v>
       </c>
       <c r="R144">
-        <v>864</v>
+        <f t="shared" si="2"/>
+        <v>864.30991742183005</v>
       </c>
       <c r="S144" t="s">
         <v>28</v>
@@ -11256,7 +11802,8 @@
         <v>5184</v>
       </c>
       <c r="R145">
-        <v>1230</v>
+        <f t="shared" si="2"/>
+        <v>757.26702614209125</v>
       </c>
       <c r="S145" t="s">
         <v>28</v>
@@ -11321,7 +11868,8 @@
         <v>5140</v>
       </c>
       <c r="R146">
-        <v>878</v>
+        <f t="shared" si="2"/>
+        <v>878.08925535484786</v>
       </c>
       <c r="S146" t="s">
         <v>28</v>
@@ -11386,7 +11934,8 @@
         <v>5099</v>
       </c>
       <c r="R147">
-        <v>915</v>
+        <f t="shared" si="2"/>
+        <v>915.4235535702586</v>
       </c>
       <c r="S147" t="s">
         <v>28</v>
@@ -11451,7 +12000,8 @@
         <v>5054</v>
       </c>
       <c r="R148">
-        <v>867</v>
+        <f t="shared" si="2"/>
+        <v>867.05479927777219</v>
       </c>
       <c r="S148" t="s">
         <v>28</v>
@@ -11516,7 +12066,8 @@
         <v>5016</v>
       </c>
       <c r="R149">
-        <v>802</v>
+        <f t="shared" si="2"/>
+        <v>802.34363741025413</v>
       </c>
       <c r="S149" t="s">
         <v>28</v>
@@ -11581,7 +12132,8 @@
         <v>4970</v>
       </c>
       <c r="R150">
-        <v>852</v>
+        <f t="shared" si="2"/>
+        <v>851.96829344226001</v>
       </c>
       <c r="S150" t="s">
         <v>28</v>
@@ -11646,7 +12198,8 @@
         <v>4927</v>
       </c>
       <c r="R151">
-        <v>797</v>
+        <f t="shared" si="2"/>
+        <v>796.75129888713082</v>
       </c>
       <c r="S151" t="s">
         <v>28</v>
@@ -11711,7 +12264,8 @@
         <v>4887</v>
       </c>
       <c r="R152">
-        <v>939</v>
+        <f t="shared" si="2"/>
+        <v>938.82031243355868</v>
       </c>
       <c r="S152" t="s">
         <v>28</v>
@@ -11776,7 +12330,8 @@
         <v>4861</v>
       </c>
       <c r="R153">
-        <v>856</v>
+        <f t="shared" si="2"/>
+        <v>855.77123873926507</v>
       </c>
       <c r="S153" t="s">
         <v>28</v>
@@ -11841,7 +12396,8 @@
         <v>4816</v>
       </c>
       <c r="R154">
-        <v>729</v>
+        <f t="shared" si="2"/>
+        <v>728.6619896648449</v>
       </c>
       <c r="S154" t="s">
         <v>28</v>
@@ -11906,7 +12462,8 @@
         <v>4774</v>
       </c>
       <c r="R155">
-        <v>674</v>
+        <f t="shared" si="2"/>
+        <v>674.35073402133719</v>
       </c>
       <c r="S155" t="s">
         <v>28</v>
@@ -11971,7 +12528,8 @@
         <v>4738</v>
       </c>
       <c r="R156">
-        <v>949</v>
+        <f t="shared" si="2"/>
+        <v>949.06610028748173</v>
       </c>
       <c r="S156" t="s">
         <v>28</v>
@@ -12036,7 +12594,8 @@
         <v>4711</v>
       </c>
       <c r="R157">
-        <v>886</v>
+        <f t="shared" si="2"/>
+        <v>886.15631418600697</v>
       </c>
       <c r="S157" t="s">
         <v>28</v>
@@ -12101,7 +12660,8 @@
         <v>4671</v>
       </c>
       <c r="R158">
-        <v>723</v>
+        <f t="shared" si="2"/>
+        <v>723.15251864097127</v>
       </c>
       <c r="S158" t="s">
         <v>28</v>
@@ -12166,7 +12726,8 @@
         <v>4641</v>
       </c>
       <c r="R159">
-        <v>716</v>
+        <f t="shared" si="2"/>
+        <v>715.77012552548013</v>
       </c>
       <c r="S159" t="s">
         <v>28</v>
@@ -12231,7 +12792,8 @@
         <v>4613</v>
       </c>
       <c r="R160">
-        <v>982</v>
+        <f t="shared" si="2"/>
+        <v>981.50594604907974</v>
       </c>
       <c r="S160" t="s">
         <v>28</v>
@@ -12296,7 +12858,8 @@
         <v>4590</v>
       </c>
       <c r="R161">
-        <v>920</v>
+        <f t="shared" si="2"/>
+        <v>920.26160600382354</v>
       </c>
       <c r="S161" t="s">
         <v>28</v>
@@ -12361,7 +12924,8 @@
         <v>4555</v>
       </c>
       <c r="R162">
-        <v>808</v>
+        <f t="shared" si="2"/>
+        <v>808.34692636862087</v>
       </c>
       <c r="S162" t="s">
         <v>28</v>
@@ -12426,7 +12990,8 @@
         <v>4489</v>
       </c>
       <c r="R163">
-        <v>1000</v>
+        <f t="shared" si="2"/>
+        <v>1000.4714308064631</v>
       </c>
       <c r="S163" t="s">
         <v>28</v>
@@ -12491,7 +13056,8 @@
         <v>4435</v>
       </c>
       <c r="R164">
-        <v>1019</v>
+        <f t="shared" si="2"/>
+        <v>1018.6128704973108</v>
       </c>
       <c r="S164" t="s">
         <v>28</v>
@@ -12556,7 +13122,8 @@
         <v>4405</v>
       </c>
       <c r="R165">
-        <v>1033</v>
+        <f t="shared" si="2"/>
+        <v>1032.8129674634424</v>
       </c>
       <c r="S165" t="s">
         <v>28</v>
@@ -12621,7 +13188,8 @@
         <v>4368</v>
       </c>
       <c r="R166">
-        <v>1044</v>
+        <f t="shared" si="2"/>
+        <v>1043.6710566147365</v>
       </c>
       <c r="S166" t="s">
         <v>28</v>
@@ -12686,7 +13254,8 @@
         <v>4323</v>
       </c>
       <c r="R167">
-        <v>1062</v>
+        <f t="shared" si="2"/>
+        <v>1061.5974013038606</v>
       </c>
       <c r="S167" t="s">
         <v>28</v>
@@ -12751,7 +13320,8 @@
         <v>4301</v>
       </c>
       <c r="R168">
-        <v>1064</v>
+        <f t="shared" si="2"/>
+        <v>1064.2697132776163</v>
       </c>
       <c r="S168" t="s">
         <v>28</v>
@@ -12816,7 +13386,8 @@
         <v>4259</v>
       </c>
       <c r="R169">
-        <v>1087</v>
+        <f t="shared" si="2"/>
+        <v>1086.8948133235681</v>
       </c>
       <c r="S169" t="s">
         <v>28</v>
@@ -12881,7 +13452,8 @@
         <v>5867</v>
       </c>
       <c r="R170">
-        <v>340</v>
+        <f t="shared" si="2"/>
+        <v>339.56724299955329</v>
       </c>
       <c r="S170" t="s">
         <v>28</v>
@@ -12946,7 +13518,8 @@
         <v>5896</v>
       </c>
       <c r="R171">
-        <v>362</v>
+        <f t="shared" si="2"/>
+        <v>362.03253468431421</v>
       </c>
       <c r="S171" t="s">
         <v>28</v>
@@ -13011,7 +13584,8 @@
         <v>5948</v>
       </c>
       <c r="R172">
-        <v>407</v>
+        <f t="shared" si="2"/>
+        <v>407.35513082268284</v>
       </c>
       <c r="S172" t="s">
         <v>28</v>
@@ -13076,7 +13650,8 @@
         <v>5982</v>
       </c>
       <c r="R173">
-        <v>443</v>
+        <f t="shared" si="2"/>
+        <v>442.50687662790187</v>
       </c>
       <c r="S173" t="s">
         <v>28</v>
@@ -13141,7 +13716,8 @@
         <v>6022</v>
       </c>
       <c r="R174">
-        <v>487</v>
+        <f t="shared" si="2"/>
+        <v>486.855928779691</v>
       </c>
       <c r="S174" t="s">
         <v>28</v>
@@ -13206,7 +13782,8 @@
         <v>6043</v>
       </c>
       <c r="R175">
-        <v>532</v>
+        <f t="shared" si="2"/>
+        <v>531.66125673298654</v>
       </c>
       <c r="S175" t="s">
         <v>28</v>
@@ -13271,7 +13848,8 @@
         <v>6058</v>
       </c>
       <c r="R176">
-        <v>544</v>
+        <f t="shared" si="2"/>
+        <v>543.51346319161576</v>
       </c>
       <c r="S176" t="s">
         <v>28</v>
@@ -13336,7 +13914,8 @@
         <v>6071</v>
       </c>
       <c r="R177">
-        <v>600</v>
+        <f t="shared" si="2"/>
+        <v>599.86432425720159</v>
       </c>
       <c r="S177" t="s">
         <v>28</v>
@@ -13401,7 +13980,8 @@
         <v>6068</v>
       </c>
       <c r="R178">
-        <v>617</v>
+        <f t="shared" si="2"/>
+        <v>616.9738607252732</v>
       </c>
       <c r="S178" t="s">
         <v>28</v>
@@ -13466,7 +14046,8 @@
         <v>6056</v>
       </c>
       <c r="R179">
-        <v>653</v>
+        <f t="shared" si="2"/>
+        <v>652.57861938422411</v>
       </c>
       <c r="S179" t="s">
         <v>28</v>
@@ -13531,7 +14112,8 @@
         <v>6040</v>
       </c>
       <c r="R180">
-        <v>659</v>
+        <f t="shared" si="2"/>
+        <v>659.18971988818816</v>
       </c>
       <c r="S180" t="s">
         <v>28</v>
@@ -13596,7 +14178,8 @@
         <v>6007</v>
       </c>
       <c r="R181">
-        <v>677</v>
+        <f t="shared" si="2"/>
+        <v>677.42358825754741</v>
       </c>
       <c r="S181" t="s">
         <v>28</v>
@@ -13661,7 +14244,8 @@
         <v>5962</v>
       </c>
       <c r="R182">
-        <v>700</v>
+        <f t="shared" si="2"/>
+        <v>700.21519786273757</v>
       </c>
       <c r="S182" t="s">
         <v>28</v>
@@ -13726,7 +14310,8 @@
         <v>5929</v>
       </c>
       <c r="R183">
-        <v>712</v>
+        <f t="shared" si="2"/>
+        <v>711.73181696651648</v>
       </c>
       <c r="S183" t="s">
         <v>28</v>
@@ -13791,7 +14376,8 @@
         <v>5895</v>
       </c>
       <c r="R184">
-        <v>992</v>
+        <f t="shared" si="2"/>
+        <v>758.51496701224596</v>
       </c>
       <c r="S184" t="s">
         <v>28</v>
@@ -13856,7 +14442,8 @@
         <v>5863</v>
       </c>
       <c r="R185">
-        <v>740</v>
+        <f t="shared" si="2"/>
+        <v>739.94888008819498</v>
       </c>
       <c r="S185" t="s">
         <v>28</v>
@@ -13921,7 +14508,8 @@
         <v>5827</v>
       </c>
       <c r="R186">
-        <v>738</v>
+        <f t="shared" si="2"/>
+        <v>738.36970607190676</v>
       </c>
       <c r="S186" t="s">
         <v>28</v>
@@ -13986,7 +14574,8 @@
         <v>5772</v>
       </c>
       <c r="R187">
-        <v>751</v>
+        <f t="shared" si="2"/>
+        <v>751.36801447026244</v>
       </c>
       <c r="S187" t="s">
         <v>28</v>
@@ -14051,7 +14640,8 @@
         <v>5723</v>
       </c>
       <c r="R188">
-        <v>745</v>
+        <f t="shared" si="2"/>
+        <v>745.03941909688069</v>
       </c>
       <c r="S188" t="s">
         <v>28</v>
@@ -14116,7 +14706,8 @@
         <v>5709</v>
       </c>
       <c r="R189">
-        <v>747.5</v>
+        <f t="shared" si="2"/>
+        <v>765.86422248845236</v>
       </c>
       <c r="S189" t="s">
         <v>28</v>
@@ -14181,7 +14772,8 @@
         <v>5695</v>
       </c>
       <c r="R190">
-        <v>750</v>
+        <f t="shared" si="2"/>
+        <v>749.67525502626575</v>
       </c>
       <c r="S190" t="s">
         <v>28</v>
@@ -14246,7 +14838,8 @@
         <v>5660</v>
       </c>
       <c r="R191">
-        <v>759</v>
+        <f t="shared" si="2"/>
+        <v>758.75543893758936</v>
       </c>
       <c r="S191" t="s">
         <v>28</v>
@@ -14311,7 +14904,8 @@
         <v>5625</v>
       </c>
       <c r="R192">
-        <v>757</v>
+        <f t="shared" si="2"/>
+        <v>757.02425379618717</v>
       </c>
       <c r="S192" t="s">
         <v>28</v>
@@ -14376,7 +14970,8 @@
         <v>5583</v>
       </c>
       <c r="R193">
-        <v>741</v>
+        <f t="shared" si="2"/>
+        <v>740.68365506256464</v>
       </c>
       <c r="S193" t="s">
         <v>28</v>
@@ -14441,7 +15036,8 @@
         <v>5519</v>
       </c>
       <c r="R194">
-        <v>737</v>
+        <f t="shared" si="2"/>
+        <v>737.06117107859563</v>
       </c>
       <c r="S194" t="s">
         <v>28</v>
@@ -14506,7 +15102,8 @@
         <v>5478</v>
       </c>
       <c r="R195">
-        <v>743</v>
+        <f t="shared" ref="R195:R225" si="3">SQRT((I195-L195)^2 + (J195-M195)^2 + (K195-N195)^2) + SQRT((O195-L195)^2 + (P195-M195)^2 + (Q195-N195)^2)</f>
+        <v>743.3449723875832</v>
       </c>
       <c r="S195" t="s">
         <v>28</v>
@@ -14571,7 +15168,8 @@
         <v>5427</v>
       </c>
       <c r="R196">
-        <v>728</v>
+        <f t="shared" si="3"/>
+        <v>727.75303921068166</v>
       </c>
       <c r="S196" t="s">
         <v>28</v>
@@ -14636,7 +15234,8 @@
         <v>5384</v>
       </c>
       <c r="R197">
-        <v>733</v>
+        <f t="shared" si="3"/>
+        <v>733.22821275423928</v>
       </c>
       <c r="S197" t="s">
         <v>28</v>
@@ -14701,7 +15300,8 @@
         <v>5333</v>
       </c>
       <c r="R198">
-        <v>705</v>
+        <f t="shared" si="3"/>
+        <v>705.3414131837601</v>
       </c>
       <c r="S198" t="s">
         <v>28</v>
@@ -14766,7 +15366,8 @@
         <v>5261</v>
       </c>
       <c r="R199">
-        <v>685</v>
+        <f t="shared" si="3"/>
+        <v>684.63001845666054</v>
       </c>
       <c r="S199" t="s">
         <v>28</v>
@@ -14831,7 +15432,8 @@
         <v>5229</v>
       </c>
       <c r="R200">
-        <v>683</v>
+        <f t="shared" si="3"/>
+        <v>683.30965801909201</v>
       </c>
       <c r="S200" t="s">
         <v>28</v>
@@ -14896,7 +15498,8 @@
         <v>5184</v>
       </c>
       <c r="R201">
-        <v>1258</v>
+        <f t="shared" si="3"/>
+        <v>661.57283790508484</v>
       </c>
       <c r="S201" t="s">
         <v>28</v>
@@ -14961,7 +15564,8 @@
         <v>5140</v>
       </c>
       <c r="R202">
-        <v>650</v>
+        <f t="shared" si="3"/>
+        <v>649.72110394924596</v>
       </c>
       <c r="S202" t="s">
         <v>28</v>
@@ -15026,7 +15630,8 @@
         <v>5099</v>
       </c>
       <c r="R203">
-        <v>643</v>
+        <f t="shared" si="3"/>
+        <v>642.99821564788044</v>
       </c>
       <c r="S203" t="s">
         <v>28</v>
@@ -15091,7 +15696,8 @@
         <v>5054</v>
       </c>
       <c r="R204">
-        <v>638</v>
+        <f t="shared" si="3"/>
+        <v>637.64094118970638</v>
       </c>
       <c r="S204" t="s">
         <v>28</v>
@@ -15156,7 +15762,8 @@
         <v>5016</v>
       </c>
       <c r="R205">
-        <v>633</v>
+        <f t="shared" si="3"/>
+        <v>632.53366050115267</v>
       </c>
       <c r="S205" t="s">
         <v>28</v>
@@ -15221,7 +15828,8 @@
         <v>4970</v>
       </c>
       <c r="R206">
-        <v>629</v>
+        <f t="shared" si="3"/>
+        <v>628.94028786459785</v>
       </c>
       <c r="S206" t="s">
         <v>28</v>
@@ -15286,7 +15894,8 @@
         <v>4927</v>
       </c>
       <c r="R207">
-        <v>621</v>
+        <f t="shared" si="3"/>
+        <v>620.94342015634948</v>
       </c>
       <c r="S207" t="s">
         <v>28</v>
@@ -15351,7 +15960,8 @@
         <v>4887</v>
       </c>
       <c r="R208">
-        <v>621</v>
+        <f t="shared" si="3"/>
+        <v>620.83965916858494</v>
       </c>
       <c r="S208" t="s">
         <v>28</v>
@@ -15416,7 +16026,8 @@
         <v>4861</v>
       </c>
       <c r="R209">
-        <v>631</v>
+        <f t="shared" si="3"/>
+        <v>630.57050587539538</v>
       </c>
       <c r="S209" t="s">
         <v>28</v>
@@ -15481,7 +16092,8 @@
         <v>4816</v>
       </c>
       <c r="R210">
-        <v>627</v>
+        <f t="shared" si="3"/>
+        <v>626.9894877193617</v>
       </c>
       <c r="S210" t="s">
         <v>28</v>
@@ -15546,7 +16158,8 @@
         <v>4774</v>
       </c>
       <c r="R211">
-        <v>593</v>
+        <f t="shared" si="3"/>
+        <v>592.82423486141806</v>
       </c>
       <c r="S211" t="s">
         <v>28</v>
@@ -15611,7 +16224,8 @@
         <v>4738</v>
       </c>
       <c r="R212">
-        <v>575</v>
+        <f t="shared" si="3"/>
+        <v>574.73903221658907</v>
       </c>
       <c r="S212" t="s">
         <v>28</v>
@@ -15676,7 +16290,8 @@
         <v>4711</v>
       </c>
       <c r="R213">
-        <v>546</v>
+        <f t="shared" si="3"/>
+        <v>546.08627657363695</v>
       </c>
       <c r="S213" t="s">
         <v>28</v>
@@ -15741,7 +16356,8 @@
         <v>4671</v>
       </c>
       <c r="R214">
-        <v>508</v>
+        <f t="shared" si="3"/>
+        <v>507.79497163647409</v>
       </c>
       <c r="S214" t="s">
         <v>28</v>
@@ -15806,7 +16422,8 @@
         <v>4641</v>
       </c>
       <c r="R215">
-        <v>466</v>
+        <f t="shared" si="3"/>
+        <v>466.45761809830765</v>
       </c>
       <c r="S215" t="s">
         <v>28</v>
@@ -15871,7 +16488,8 @@
         <v>4613</v>
       </c>
       <c r="R216">
-        <v>426</v>
+        <f t="shared" si="3"/>
+        <v>426.49807035985816</v>
       </c>
       <c r="S216" t="s">
         <v>28</v>
@@ -15936,7 +16554,8 @@
         <v>4590</v>
       </c>
       <c r="R217">
-        <v>404</v>
+        <f t="shared" si="3"/>
+        <v>403.52281682270376</v>
       </c>
       <c r="S217" t="s">
         <v>28</v>
@@ -16001,7 +16620,8 @@
         <v>4555</v>
       </c>
       <c r="R218">
-        <v>408</v>
+        <f t="shared" si="3"/>
+        <v>408.01151341768116</v>
       </c>
       <c r="S218" t="s">
         <v>28</v>
@@ -16066,7 +16686,8 @@
         <v>4489</v>
       </c>
       <c r="R219">
-        <v>376</v>
+        <f t="shared" si="3"/>
+        <v>376.33216043252622</v>
       </c>
       <c r="S219" t="s">
         <v>28</v>
@@ -16131,7 +16752,8 @@
         <v>4435</v>
       </c>
       <c r="R220">
-        <v>372</v>
+        <f t="shared" si="3"/>
+        <v>371.79451017796958</v>
       </c>
       <c r="S220" t="s">
         <v>28</v>
@@ -16196,7 +16818,8 @@
         <v>4405</v>
       </c>
       <c r="R221">
-        <v>345</v>
+        <f t="shared" si="3"/>
+        <v>344.82746536047182</v>
       </c>
       <c r="S221" t="s">
         <v>28</v>
@@ -16261,7 +16884,8 @@
         <v>4368</v>
       </c>
       <c r="R222">
-        <v>353</v>
+        <f t="shared" si="3"/>
+        <v>352.75665496964183</v>
       </c>
       <c r="S222" t="s">
         <v>28</v>
@@ -16326,7 +16950,8 @@
         <v>4323</v>
       </c>
       <c r="R223">
-        <v>366</v>
+        <f t="shared" si="3"/>
+        <v>366.18547018341235</v>
       </c>
       <c r="S223" t="s">
         <v>28</v>
@@ -16391,7 +17016,8 @@
         <v>4301</v>
       </c>
       <c r="R224">
-        <v>374</v>
+        <f t="shared" si="3"/>
+        <v>374.32576277035304</v>
       </c>
       <c r="S224" t="s">
         <v>28</v>
@@ -16456,7 +17082,8 @@
         <v>4259</v>
       </c>
       <c r="R225">
-        <v>404</v>
+        <f t="shared" si="3"/>
+        <v>404.44589542344374</v>
       </c>
       <c r="S225" t="s">
         <v>28</v>
@@ -20114,10 +20741,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA57"/>
+  <dimension ref="A1:BA67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20291,45 +20918,46 @@
       </c>
       <c r="D2">
         <f>LEDStripLocations.csv!R2+LEDStripLocations.csv!R58</f>
-        <v>1019</v>
+        <v>1018.8443370772164</v>
       </c>
       <c r="E2">
-        <f>FLOOR(LEDStripLocations.csv!R58/100*3,3)</f>
-        <v>9</v>
+        <f>CEILING(LEDStripLocations.csv!R58/100*3,1)</f>
+        <v>11</v>
       </c>
       <c r="F2">
-        <f>FLOOR(LEDStripLocations.csv!R2/100*3,3)</f>
-        <v>18</v>
+        <f>CEILING(LEDStripLocations.csv!R2/100*3,1)</f>
+        <v>21</v>
       </c>
       <c r="G2">
         <f>E2+F2</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <f>IF(G2&lt;31, 30, IF(G2 &lt; 39, 38, IF(G2&lt; 46, 45, IF(G2 &lt; 54, 53, IF(G2 &lt; 61, 60, IF(G2&lt; 69, 68, IF(G2&lt; 76, 75, 112)))))))</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I2">
         <f>H2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
         <f>F2</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L2">
         <f>H2-F2</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <f>H2-G2</f>
+        <v>6</v>
       </c>
       <c r="N2">
         <f>M2+F2</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="O2">
         <f>SQRT((LEDStripLocations.csv!$I2-$AY$6)^2 + (LEDStripLocations.csv!$J2-$AZ$6)^2 + (LEDStripLocations.csv!$K2-$BA$6)^2)/25.4</f>
@@ -20471,46 +21099,46 @@
       </c>
       <c r="D3">
         <f>LEDStripLocations.csv!R3+LEDStripLocations.csv!R59</f>
-        <v>1056</v>
+        <v>1056.0665493180172</v>
       </c>
       <c r="E3">
-        <f>FLOOR(LEDStripLocations.csv!R59/100*3,3)</f>
-        <v>9</v>
+        <f>CEILING(LEDStripLocations.csv!R59/100*3,1)</f>
+        <v>11</v>
       </c>
       <c r="F3">
-        <f>FLOOR(LEDStripLocations.csv!R3/100*3,3)</f>
-        <v>18</v>
+        <f>CEILING(LEDStripLocations.csv!R3/100*3,1)</f>
+        <v>21</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G57" si="0">E3+F3</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H56" si="1">IF(G3&lt;31, 30, IF(G3 &lt; 39, 38, IF(G3&lt; 46, 45, IF(G3 &lt; 54, 53, IF(G3 &lt; 61, 60, IF(G3&lt; 69, 68, IF(G3&lt; 76, 75, 112)))))))</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <f>I2+H3</f>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
         <f>H3-E3</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L3">
         <f>E3</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M3">
         <f>N3+E3</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <f>I2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O3">
         <f>SQRT((LEDStripLocations.csv!I3-AY$6)^2 + (LEDStripLocations.csv!J3-AZ$6)^2 + (LEDStripLocations.csv!K3-BA$6)^2)/25.4</f>
@@ -20653,19 +21281,17 @@
       </c>
       <c r="D4">
         <f>LEDStripLocations.csv!R4+LEDStripLocations.csv!R60</f>
-        <v>1142</v>
+        <v>1141.9049295155928</v>
       </c>
       <c r="E4">
-        <f>FLOOR(LEDStripLocations.csv!R60/100*3,3)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <f>FLOOR(LEDStripLocations.csv!R4/100*3,3)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -20673,26 +21299,24 @@
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I57" si="2">I3+H4</f>
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
         <f>F4</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L4">
         <f>H4-F4</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M4">
-        <f>I3</f>
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <f>M4+F4</f>
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="O4">
         <f>SQRT((LEDStripLocations.csv!I4-AY$6)^2 + (LEDStripLocations.csv!J4-AZ$6)^2 + (LEDStripLocations.csv!K4-BA$6)^2)/25.4</f>
@@ -20822,46 +21446,45 @@
       </c>
       <c r="D5">
         <f>LEDStripLocations.csv!R5+LEDStripLocations.csv!R61</f>
-        <v>1213</v>
+        <v>1212.1461626037069</v>
       </c>
       <c r="E5">
-        <f>FLOOR(LEDStripLocations.csv!R61/100*3,3)</f>
-        <v>12</v>
+        <f>CEILING(LEDStripLocations.csv!R61/100*3,1)</f>
+        <v>14</v>
       </c>
       <c r="F5">
-        <f>FLOOR(LEDStripLocations.csv!R5/100*3,3)</f>
-        <v>21</v>
+        <f>CEILING(LEDStripLocations.csv!R5/100*3,1)</f>
+        <v>24</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
         <f>H5-E5</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L5">
         <f>E5</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M5">
         <f>N5+E5</f>
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="N5">
         <f>I4</f>
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="O5">
         <f>SQRT((LEDStripLocations.csv!I5-AY$6)^2 + (LEDStripLocations.csv!J5-AZ$6)^2 + (LEDStripLocations.csv!K5-BA$6)^2)/25.4</f>
@@ -20992,27 +21615,24 @@
       </c>
       <c r="D6">
         <f>LEDStripLocations.csv!R6+LEDStripLocations.csv!R62</f>
-        <v>1308</v>
+        <v>1308.0000269160191</v>
       </c>
       <c r="E6">
-        <f>FLOOR(LEDStripLocations.csv!R62/100*3,3)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <f>FLOOR(LEDStripLocations.csv!R6/100*3,3)</f>
         <v>24</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="H6" s="2">
         <v>38</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -21026,12 +21646,11 @@
         <v>14</v>
       </c>
       <c r="M6">
-        <f>I5</f>
-        <v>136</v>
+        <f>I5+H6-G6</f>
+        <v>152</v>
       </c>
       <c r="N6">
-        <f>M6+F6</f>
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="O6">
         <f>SQRT((LEDStripLocations.csv!I6-AY$6)^2 + (LEDStripLocations.csv!J6-AZ$6)^2 + (LEDStripLocations.csv!K6-BA$6)^2)/25.4</f>
@@ -21161,19 +21780,18 @@
       </c>
       <c r="D7">
         <f>LEDStripLocations.csv!R7+LEDStripLocations.csv!R63</f>
-        <v>1146</v>
+        <v>1145.7462942042325</v>
       </c>
       <c r="E7">
-        <f>FLOOR(LEDStripLocations.csv!R63/100*3,3)</f>
         <v>15</v>
       </c>
       <c r="F7">
-        <f>FLOOR(LEDStripLocations.csv!R7/100*3,3)</f>
-        <v>18</v>
+        <f>CEILING(LEDStripLocations.csv!R7/100*3,1)</f>
+        <v>19</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -21181,7 +21799,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -21195,12 +21813,11 @@
         <v>15</v>
       </c>
       <c r="M7">
-        <f>N7+E7</f>
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="N7">
         <f>I6</f>
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="O7">
         <f>SQRT((LEDStripLocations.csv!I7-AY$6)^2 + (LEDStripLocations.csv!J7-AZ$6)^2 + (LEDStripLocations.csv!K7-BA$6)^2)/25.4</f>
@@ -21330,19 +21947,17 @@
       </c>
       <c r="D8">
         <f>LEDStripLocations.csv!R8+LEDStripLocations.csv!R64</f>
-        <v>1434</v>
+        <v>1433.56518693259</v>
       </c>
       <c r="E8">
-        <f>FLOOR(LEDStripLocations.csv!R64/100*3,3)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <f>FLOOR(LEDStripLocations.csv!R8/100*3,3)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -21350,26 +21965,25 @@
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
         <f>F8</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L8">
         <f>H8-F8</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <f>I7</f>
-        <v>212</v>
+        <f>I7+H8-G8</f>
+        <v>232</v>
       </c>
       <c r="N8">
-        <f>M8+F8</f>
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="O8">
         <f>SQRT((LEDStripLocations.csv!I8-AY$6)^2 + (LEDStripLocations.csv!J8-AZ$6)^2 + (LEDStripLocations.csv!K8-BA$6)^2)/25.4</f>
@@ -21499,19 +22113,18 @@
       </c>
       <c r="D9">
         <f>LEDStripLocations.csv!R9+LEDStripLocations.csv!R65</f>
-        <v>1297</v>
+        <v>1296.5602405192069</v>
       </c>
       <c r="E9">
-        <f>FLOOR(LEDStripLocations.csv!R65/100*3,3)</f>
+        <f>CEILING(LEDStripLocations.csv!R65/100*3,1)</f>
         <v>18</v>
       </c>
       <c r="F9">
-        <f>FLOOR(LEDStripLocations.csv!R9/100*3,3)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -21519,7 +22132,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -21534,11 +22147,10 @@
       </c>
       <c r="M9">
         <f>N9+E9</f>
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="N9">
-        <f>I8</f>
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="O9">
         <f>SQRT((LEDStripLocations.csv!I9-AY$6)^2 + (LEDStripLocations.csv!J9-AZ$6)^2 + (LEDStripLocations.csv!K9-BA$6)^2)/25.4</f>
@@ -21656,46 +22268,45 @@
       </c>
       <c r="D10">
         <f>LEDStripLocations.csv!R10+LEDStripLocations.csv!R66</f>
-        <v>1587</v>
+        <v>1586.7536054911834</v>
       </c>
       <c r="E10">
-        <f>FLOOR(LEDStripLocations.csv!R66/100*3,3)</f>
-        <v>18</v>
+        <f>CEILING(LEDStripLocations.csv!R66/100*3,1)</f>
+        <v>19</v>
       </c>
       <c r="F10">
-        <f>FLOOR(LEDStripLocations.csv!R10/100*3,3)</f>
-        <v>27</v>
+        <f>CEILING(LEDStripLocations.csv!R10/100*3,1)</f>
+        <v>30</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
         <f>F10</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L10">
         <f>H10-F10</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <f>I9</f>
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="N10">
         <f>M10+F10</f>
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="O10">
         <f>SQRT((LEDStripLocations.csv!I10-AY$6)^2 + (LEDStripLocations.csv!J10-AZ$6)^2 + (LEDStripLocations.csv!K10-BA$6)^2)/25.4</f>
@@ -21813,19 +22424,19 @@
       </c>
       <c r="D11">
         <f>LEDStripLocations.csv!R11+LEDStripLocations.csv!R67</f>
-        <v>1394</v>
+        <v>1393.9300131842674</v>
       </c>
       <c r="E11">
-        <f>FLOOR(LEDStripLocations.csv!R67/100*3,3)</f>
-        <v>18</v>
+        <f>CEILING(LEDStripLocations.csv!R67/100*3,1)</f>
+        <v>20</v>
       </c>
       <c r="F11">
-        <f>FLOOR(LEDStripLocations.csv!R11/100*3,3)</f>
-        <v>21</v>
+        <f>CEILING(LEDStripLocations.csv!R11/100*3,1)</f>
+        <v>23</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -21840,18 +22451,19 @@
       </c>
       <c r="K11">
         <f>F11</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L11">
         <f>H11-F11</f>
-        <v>24</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="M11" s="2">
+        <f>H11-G11</f>
+        <v>2</v>
       </c>
       <c r="N11">
         <f>M11+F11</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O11">
         <f>SQRT((LEDStripLocations.csv!I11-AY$6)^2 + (LEDStripLocations.csv!J11-AZ$6)^2 + (LEDStripLocations.csv!K11-BA$6)^2)/25.4</f>
@@ -21969,19 +22581,19 @@
       </c>
       <c r="D12">
         <f>LEDStripLocations.csv!R12+LEDStripLocations.csv!R68</f>
-        <v>1668</v>
+        <v>1668.1935344408093</v>
       </c>
       <c r="E12">
-        <f>FLOOR(LEDStripLocations.csv!R68/100*3,3)</f>
-        <v>18</v>
+        <f>CEILING(LEDStripLocations.csv!R68/100*3,1)</f>
+        <v>20</v>
       </c>
       <c r="F12">
-        <f>FLOOR(LEDStripLocations.csv!R12/100*3,3)</f>
-        <v>30</v>
+        <f>CEILING(LEDStripLocations.csv!R12/100*3,1)</f>
+        <v>31</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
@@ -21996,15 +22608,15 @@
       </c>
       <c r="K12">
         <f>H12-E12</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L12">
         <f>E12</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M12">
         <f>N12+E12</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <f>I11</f>
@@ -22126,19 +22738,18 @@
       </c>
       <c r="D13">
         <f>LEDStripLocations.csv!R13+LEDStripLocations.csv!R69</f>
-        <v>1681</v>
+        <v>1680.9769495686919</v>
       </c>
       <c r="E13">
-        <f>FLOOR(LEDStripLocations.csv!R69/100*3,3)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F13">
-        <f>FLOOR(LEDStripLocations.csv!R13/100*3,3)</f>
-        <v>30</v>
+        <f>CEILING(LEDStripLocations.csv!R13/100*3,1)</f>
+        <v>31</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
@@ -22153,15 +22764,14 @@
       </c>
       <c r="K13">
         <f>F13</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L13">
         <f>H13-F13</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <f>I12</f>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N13">
         <f>M13+F13</f>
@@ -22283,19 +22893,19 @@
       </c>
       <c r="D14">
         <f>LEDStripLocations.csv!R14+LEDStripLocations.csv!R70</f>
-        <v>1667</v>
+        <v>1666.7411857030615</v>
       </c>
       <c r="E14">
-        <f>FLOOR(LEDStripLocations.csv!R70/100*3,3)</f>
-        <v>21</v>
+        <f>CEILING(LEDStripLocations.csv!R70/100*3,1)</f>
+        <v>22</v>
       </c>
       <c r="F14">
-        <f>FLOOR(LEDStripLocations.csv!R14/100*3,3)</f>
-        <v>27</v>
+        <f>CEILING(LEDStripLocations.csv!R14/100*3,1)</f>
+        <v>29</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
@@ -22310,19 +22920,17 @@
       </c>
       <c r="K14">
         <f>H14-E14</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L14">
         <f>E14</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <f>N14+E14</f>
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N14">
-        <f>I13</f>
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O14">
         <f>SQRT((LEDStripLocations.csv!I14-AY$6)^2 + (LEDStripLocations.csv!J14-AZ$6)^2 + (LEDStripLocations.csv!K14-BA$6)^2)/25.4</f>
@@ -22440,19 +23048,19 @@
       </c>
       <c r="D15">
         <f>LEDStripLocations.csv!R15+LEDStripLocations.csv!R71</f>
-        <v>1700</v>
+        <v>1700.0583582640411</v>
       </c>
       <c r="E15">
-        <f>FLOOR(LEDStripLocations.csv!R71/100*3,3)</f>
-        <v>21</v>
+        <f>CEILING(LEDStripLocations.csv!R71/100*3,1)</f>
+        <v>22</v>
       </c>
       <c r="F15">
-        <f>FLOOR(LEDStripLocations.csv!R15/100*3,3)</f>
-        <v>27</v>
+        <f>CEILING(LEDStripLocations.csv!R15/100*3,1)</f>
+        <v>30</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
@@ -22467,19 +23075,17 @@
       </c>
       <c r="K15">
         <f>F15</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L15">
         <f>H15-F15</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <f>I14</f>
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N15">
-        <f>M15+F15</f>
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O15">
         <f>SQRT((LEDStripLocations.csv!I15-AY$6)^2 + (LEDStripLocations.csv!J15-AZ$6)^2 + (LEDStripLocations.csv!K15-BA$6)^2)/25.4</f>
@@ -22597,46 +23203,44 @@
       </c>
       <c r="D16">
         <f>LEDStripLocations.csv!R16+LEDStripLocations.csv!R72</f>
-        <v>2257</v>
+        <v>1750.6595618125154</v>
       </c>
       <c r="E16">
-        <f>FLOOR(LEDStripLocations.csv!R72/100*3,3)</f>
-        <v>36</v>
+        <f>CEILING(LEDStripLocations.csv!R72/100*3,1)</f>
+        <v>23</v>
       </c>
       <c r="F16">
-        <f>FLOOR(LEDStripLocations.csv!R16/100*3,3)</f>
-        <v>27</v>
+        <f>CEILING(LEDStripLocations.csv!R16/100*3,1)</f>
+        <v>30</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="J16">
         <v>2</v>
       </c>
       <c r="K16">
         <f>H16-E16</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L16">
         <f>E16</f>
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <f>N16+E16</f>
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="N16">
-        <f>I15</f>
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O16">
         <f>SQRT((LEDStripLocations.csv!I16-AY$6)^2 + (LEDStripLocations.csv!J16-AZ$6)^2 + (LEDStripLocations.csv!K16-BA$6)^2)/25.4</f>
@@ -22754,46 +23358,44 @@
       </c>
       <c r="D17">
         <f>LEDStripLocations.csv!R17+LEDStripLocations.csv!R73</f>
-        <v>1545</v>
+        <v>1544.5482288108503</v>
       </c>
       <c r="E17">
-        <f>FLOOR(LEDStripLocations.csv!R73/100*3,3)</f>
-        <v>21</v>
+        <f>CEILING(LEDStripLocations.csv!R73/100*3,1)</f>
+        <v>23</v>
       </c>
       <c r="F17">
-        <f>FLOOR(LEDStripLocations.csv!R17/100*3,3)</f>
-        <v>24</v>
+        <f>CEILING(LEDStripLocations.csv!R17/100*3,1)</f>
+        <v>25</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="J17">
         <v>2</v>
       </c>
       <c r="K17">
         <f>F17</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L17">
         <f>H17-F17</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <f>I16</f>
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="N17">
-        <f>M17+F17</f>
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="O17">
         <f>SQRT((LEDStripLocations.csv!I17-AY$6)^2 + (LEDStripLocations.csv!J17-AZ$6)^2 + (LEDStripLocations.csv!K17-BA$6)^2)/25.4</f>
@@ -22911,19 +23513,19 @@
       </c>
       <c r="D18">
         <f>LEDStripLocations.csv!R18+LEDStripLocations.csv!R74</f>
-        <v>1656</v>
+        <v>1656.3584867359468</v>
       </c>
       <c r="E18">
-        <f>FLOOR(LEDStripLocations.csv!R74/100*3,3)</f>
-        <v>21</v>
+        <f>CEILING(LEDStripLocations.csv!R74/100*3,1)</f>
+        <v>23</v>
       </c>
       <c r="F18">
-        <f>FLOOR(LEDStripLocations.csv!R18/100*3,3)</f>
-        <v>27</v>
+        <f>CEILING(LEDStripLocations.csv!R18/100*3,1)</f>
+        <v>28</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
@@ -22938,18 +23540,18 @@
       </c>
       <c r="K18">
         <f>F18</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L18">
         <f>H18-F18</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <f>H18-G18</f>
+        <v>2</v>
       </c>
       <c r="N18">
-        <f>M18+F18</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O18">
         <f>SQRT((LEDStripLocations.csv!I18-AY$6)^2 + (LEDStripLocations.csv!J18-AZ$6)^2 + (LEDStripLocations.csv!K18-BA$6)^2)/25.4</f>
@@ -23067,15 +23669,14 @@
       </c>
       <c r="D19">
         <f>LEDStripLocations.csv!R19+LEDStripLocations.csv!R75</f>
-        <v>1594</v>
+        <v>1594.1509694754441</v>
       </c>
       <c r="E19">
-        <f>FLOOR(LEDStripLocations.csv!R75/100*3,3)</f>
-        <v>21</v>
+        <f>CEILING(LEDStripLocations.csv!R75/100*3,1)</f>
+        <v>23</v>
       </c>
       <c r="F19">
-        <f>FLOOR(LEDStripLocations.csv!R19/100*3,3)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
@@ -23094,19 +23695,17 @@
       </c>
       <c r="K19">
         <f>H19-E19</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L19">
         <f>E19</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M19">
-        <f>N19+E19</f>
         <v>74</v>
       </c>
       <c r="N19">
-        <f>I18</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O19">
         <f>SQRT((LEDStripLocations.csv!I19-AY$6)^2 + (LEDStripLocations.csv!J19-AZ$6)^2 + (LEDStripLocations.csv!K19-BA$6)^2)/25.4</f>
@@ -23224,19 +23823,17 @@
       </c>
       <c r="D20">
         <f>LEDStripLocations.csv!R20+LEDStripLocations.csv!R76</f>
-        <v>1839</v>
+        <v>1839.1526202271662</v>
       </c>
       <c r="E20">
-        <f>FLOOR(LEDStripLocations.csv!R76/100*3,3)</f>
-        <v>21</v>
-      </c>
-      <c r="F20">
-        <f>FLOOR(LEDStripLocations.csv!R20/100*3,3)</f>
+        <v>22</v>
+      </c>
+      <c r="F20" s="2">
         <v>30</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
@@ -23258,12 +23855,10 @@
         <v>23</v>
       </c>
       <c r="M20">
-        <f>I19</f>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N20">
-        <f>M20+F20</f>
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O20">
         <f>SQRT((LEDStripLocations.csv!I20-AY$6)^2 + (LEDStripLocations.csv!J20-AZ$6)^2 + (LEDStripLocations.csv!K20-BA$6)^2)/25.4</f>
@@ -23381,19 +23976,17 @@
       </c>
       <c r="D21">
         <f>LEDStripLocations.csv!R21+LEDStripLocations.csv!R77</f>
-        <v>1498</v>
+        <v>1497.6375278689093</v>
       </c>
       <c r="E21">
-        <f>FLOOR(LEDStripLocations.csv!R77/100*3,3)</f>
         <v>21</v>
       </c>
       <c r="F21">
-        <f>FLOOR(LEDStripLocations.csv!R21/100*3,3)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
@@ -23415,12 +24008,10 @@
         <v>21</v>
       </c>
       <c r="M21">
-        <f>N21+E21</f>
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N21">
-        <f>I20</f>
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O21">
         <f>SQRT((LEDStripLocations.csv!I21-AY$6)^2 + (LEDStripLocations.csv!J21-AZ$6)^2 + (LEDStripLocations.csv!K21-BA$6)^2)/25.4</f>
@@ -23538,19 +24129,17 @@
       </c>
       <c r="D22">
         <f>LEDStripLocations.csv!R22+LEDStripLocations.csv!R78</f>
-        <v>1756</v>
+        <v>1755.5469727998898</v>
       </c>
       <c r="E22">
-        <f>FLOOR(LEDStripLocations.csv!R78/100*3,3)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22">
-        <f>FLOOR(LEDStripLocations.csv!R22/100*3,3)</f>
         <v>30</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
@@ -23572,12 +24161,10 @@
         <v>23</v>
       </c>
       <c r="M22">
-        <f>I21</f>
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N22">
-        <f>M22+F22</f>
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O22">
         <f>SQRT((LEDStripLocations.csv!I22-AY$6)^2 + (LEDStripLocations.csv!J22-AZ$6)^2 + (LEDStripLocations.csv!K22-BA$6)^2)/25.4</f>
@@ -23695,19 +24282,18 @@
       </c>
       <c r="D23">
         <f>LEDStripLocations.csv!R23+LEDStripLocations.csv!R79</f>
-        <v>1761</v>
+        <v>1760.8465372346586</v>
       </c>
       <c r="E23">
-        <f>FLOOR(LEDStripLocations.csv!R79/100*3,3)</f>
-        <v>21</v>
+        <f>CEILING(LEDStripLocations.csv!R79/100*3,1)</f>
+        <v>23</v>
       </c>
       <c r="F23">
-        <f>FLOOR(LEDStripLocations.csv!R23/100*3,3)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
@@ -23722,19 +24308,17 @@
       </c>
       <c r="K23">
         <f>H23-E23</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L23">
         <f>E23</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <f>N23+E23</f>
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N23">
-        <f>I22</f>
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O23">
         <f>SQRT((LEDStripLocations.csv!I23-AY$6)^2 + (LEDStripLocations.csv!J23-AZ$6)^2 + (LEDStripLocations.csv!K23-BA$6)^2)/25.4</f>
@@ -23852,46 +24436,44 @@
       </c>
       <c r="D24">
         <f>LEDStripLocations.csv!R24+LEDStripLocations.csv!R80</f>
-        <v>1577</v>
+        <v>1577.1615490144397</v>
       </c>
       <c r="E24">
-        <f>FLOOR(LEDStripLocations.csv!R80/100*3,3)</f>
-        <v>21</v>
+        <f>CEILING(LEDStripLocations.csv!R80/100*3,1)</f>
+        <v>23</v>
       </c>
       <c r="F24">
-        <f>FLOOR(LEDStripLocations.csv!R24/100*3,3)</f>
-        <v>24</v>
+        <f>CEILING(LEDStripLocations.csv!R24/100*3,1)</f>
+        <v>25</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="J24">
         <v>3</v>
       </c>
       <c r="K24">
         <f>F24</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L24">
         <f>H24-F24</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <f>I23</f>
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N24">
-        <f>M24+F24</f>
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="O24">
         <f>SQRT((LEDStripLocations.csv!I24-AY$6)^2 + (LEDStripLocations.csv!J24-AZ$6)^2 + (LEDStripLocations.csv!K24-BA$6)^2)/25.4</f>
@@ -24009,15 +24591,13 @@
       </c>
       <c r="D25">
         <f>LEDStripLocations.csv!R25+LEDStripLocations.csv!R81</f>
-        <v>1564</v>
+        <v>1563.223753505463</v>
       </c>
       <c r="E25">
-        <f>FLOOR(LEDStripLocations.csv!R81/100*3,3)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F25">
-        <f>FLOOR(LEDStripLocations.csv!R25/100*3,3)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
@@ -24036,18 +24616,17 @@
       </c>
       <c r="K25">
         <f>F25</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L25">
         <f>H25-F25</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <f>M25+F25</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O25">
         <f>SQRT((LEDStripLocations.csv!I25-AY$6)^2 + (LEDStripLocations.csv!J25-AZ$6)^2 + (LEDStripLocations.csv!K25-BA$6)^2)/25.4</f>
@@ -24165,19 +24744,18 @@
       </c>
       <c r="D26">
         <f>LEDStripLocations.csv!R26+LEDStripLocations.csv!R82</f>
-        <v>1811</v>
+        <v>1810.8958178029516</v>
       </c>
       <c r="E26">
-        <f>FLOOR(LEDStripLocations.csv!R82/100*3,3)</f>
-        <v>21</v>
+        <f>CEILING(LEDStripLocations.csv!R82/100*3,1)</f>
+        <v>23</v>
       </c>
       <c r="F26">
-        <f>FLOOR(LEDStripLocations.csv!R26/100*3,3)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
@@ -24192,15 +24770,14 @@
       </c>
       <c r="K26">
         <f>H26-E26</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L26">
         <f>E26</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <f>N26+E26</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N26">
         <f>I25</f>
@@ -24322,19 +24899,18 @@
       </c>
       <c r="D27">
         <f>LEDStripLocations.csv!R27+LEDStripLocations.csv!R83</f>
-        <v>1726</v>
+        <v>1726.2961332128293</v>
       </c>
       <c r="E27">
-        <f>FLOOR(LEDStripLocations.csv!R83/100*3,3)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27">
-        <f>FLOOR(LEDStripLocations.csv!R27/100*3,3)</f>
-        <v>27</v>
+        <f>CEILING(LEDStripLocations.csv!R27/100*3,1)</f>
+        <v>30</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
@@ -24349,19 +24925,17 @@
       </c>
       <c r="K27">
         <f>F27</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L27">
         <f>H27-F27</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <f>I26</f>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N27">
-        <f>M27+F27</f>
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O27">
         <f>SQRT((LEDStripLocations.csv!I27-AY$6)^2 + (LEDStripLocations.csv!J27-AZ$6)^2 + (LEDStripLocations.csv!K27-BA$6)^2)/25.4</f>
@@ -24479,19 +25053,18 @@
       </c>
       <c r="D28">
         <f>LEDStripLocations.csv!R28+LEDStripLocations.csv!R84</f>
-        <v>1517</v>
+        <v>1517.0660025373129</v>
       </c>
       <c r="E28">
-        <f>FLOOR(LEDStripLocations.csv!R84/100*3,3)</f>
-        <v>21</v>
+        <f>CEILING(LEDStripLocations.csv!R84/100*3,1)</f>
+        <v>22</v>
       </c>
       <c r="F28">
-        <f>FLOOR(LEDStripLocations.csv!R28/100*3,3)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
@@ -24506,19 +25079,17 @@
       </c>
       <c r="K28">
         <f>H28-E28</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L28">
         <f>E28</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <f>N28+E28</f>
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N28">
-        <f>I27</f>
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O28">
         <f>SQRT((LEDStripLocations.csv!I28-AY$6)^2 + (LEDStripLocations.csv!J28-AZ$6)^2 + (LEDStripLocations.csv!K28-BA$6)^2)/25.4</f>
@@ -24636,19 +25207,19 @@
       </c>
       <c r="D29">
         <f>LEDStripLocations.csv!R29+LEDStripLocations.csv!R85</f>
-        <v>1701</v>
+        <v>1701.159019921256</v>
       </c>
       <c r="E29">
-        <f>FLOOR(LEDStripLocations.csv!R85/100*3,3)</f>
-        <v>21</v>
+        <f>CEILING(LEDStripLocations.csv!R85/100*3,1)</f>
+        <v>22</v>
       </c>
       <c r="F29">
-        <f>FLOOR(LEDStripLocations.csv!R29/100*3,3)</f>
-        <v>27</v>
+        <f>CEILING(LEDStripLocations.csv!R29/100*3,1)</f>
+        <v>30</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
@@ -24663,18 +25234,16 @@
       </c>
       <c r="K29">
         <f>F29</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L29">
         <f>H29-F29</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <f>I28</f>
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N29">
-        <f>M29+F29</f>
         <v>223</v>
       </c>
       <c r="O29">
@@ -24793,19 +25362,19 @@
       </c>
       <c r="D30">
         <f>LEDStripLocations.csv!R30+LEDStripLocations.csv!R86</f>
-        <v>1458</v>
+        <v>1458.4328703220031</v>
       </c>
       <c r="E30">
-        <f>FLOOR(LEDStripLocations.csv!R86/100*3,3)</f>
-        <v>21</v>
+        <f>CEILING(LEDStripLocations.csv!R86/100*3,1)</f>
+        <v>22</v>
       </c>
       <c r="F30">
-        <f>FLOOR(LEDStripLocations.csv!R30/100*3,3)</f>
-        <v>21</v>
+        <f>CEILING(LEDStripLocations.csv!R30/100*3,1)</f>
+        <v>23</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
@@ -24820,19 +25389,17 @@
       </c>
       <c r="K30">
         <f>H30-E30</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L30">
         <f>E30</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <f>N30+E30</f>
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N30">
-        <f>I29</f>
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O30">
         <f>SQRT((LEDStripLocations.csv!I30-AY$6)^2 + (LEDStripLocations.csv!J30-AZ$6)^2 + (LEDStripLocations.csv!K30-BA$6)^2)/25.4</f>
@@ -24950,19 +25517,18 @@
       </c>
       <c r="D31">
         <f>LEDStripLocations.csv!R31+LEDStripLocations.csv!R87</f>
-        <v>1699</v>
+        <v>1698.9071029466031</v>
       </c>
       <c r="E31">
-        <f>FLOOR(LEDStripLocations.csv!R87/100*3,3)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F31">
-        <f>FLOOR(LEDStripLocations.csv!R31/100*3,3)</f>
-        <v>30</v>
+        <f>CEILING(LEDStripLocations.csv!R31/100*3,1)</f>
+        <v>31</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
@@ -24977,19 +25543,17 @@
       </c>
       <c r="K31">
         <f>F31</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L31">
         <f>H31-F31</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <f>I30</f>
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N31">
-        <f>M31+F31</f>
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O31">
         <f>SQRT((LEDStripLocations.csv!I31-AY$6)^2 + (LEDStripLocations.csv!J31-AZ$6)^2 + (LEDStripLocations.csv!K31-BA$6)^2)/25.4</f>
@@ -25107,19 +25671,18 @@
       </c>
       <c r="D32">
         <f>LEDStripLocations.csv!R32+LEDStripLocations.csv!R88</f>
-        <v>1547</v>
+        <v>1547.6195754409221</v>
       </c>
       <c r="E32">
-        <f>FLOOR(LEDStripLocations.csv!R88/100*3,3)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F32">
-        <f>FLOOR(LEDStripLocations.csv!R32/100*3,3)</f>
-        <v>24</v>
+        <f>CEILING(LEDStripLocations.csv!R32/100*3,1)</f>
+        <v>26</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
@@ -25134,18 +25697,17 @@
       </c>
       <c r="K32">
         <f>F32</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L32">
         <f>H32-F32</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <f>M32+F32</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O32">
         <f>SQRT((LEDStripLocations.csv!I32-AY$6)^2 + (LEDStripLocations.csv!J32-AZ$6)^2 + (LEDStripLocations.csv!K32-BA$6)^2)/25.4</f>
@@ -25263,42 +25825,41 @@
       </c>
       <c r="D33">
         <f>LEDStripLocations.csv!R33+LEDStripLocations.csv!R89</f>
-        <v>2488</v>
+        <v>1418.839864047176</v>
       </c>
       <c r="E33">
-        <f>FLOOR(LEDStripLocations.csv!R89/100*3,3)</f>
-        <v>36</v>
+        <f>CEILING(LEDStripLocations.csv!R89/100*3,1)</f>
+        <v>20</v>
       </c>
       <c r="F33">
-        <f>FLOOR(LEDStripLocations.csv!R33/100*3,3)</f>
-        <v>36</v>
+        <f>CEILING(LEDStripLocations.csv!R33/100*3,1)</f>
+        <v>23</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="J33">
         <v>5</v>
       </c>
       <c r="K33">
         <f>H33-E33</f>
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L33">
         <f>E33</f>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <f>N33+E33</f>
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="N33">
         <f>I32</f>
@@ -25420,19 +25981,18 @@
       </c>
       <c r="D34">
         <f>LEDStripLocations.csv!R34+LEDStripLocations.csv!R90</f>
-        <v>1528</v>
+        <v>1527.8103593040937</v>
       </c>
       <c r="E34">
-        <f>FLOOR(LEDStripLocations.csv!R90/100*3,3)</f>
         <v>18</v>
       </c>
       <c r="F34">
-        <f>FLOOR(LEDStripLocations.csv!R34/100*3,3)</f>
-        <v>24</v>
+        <f>CEILING(LEDStripLocations.csv!R34/100*3,1)</f>
+        <v>27</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
@@ -25440,26 +26000,24 @@
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="J34">
         <v>5</v>
       </c>
       <c r="K34">
         <f>F34</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L34">
         <f>H34-F34</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <f>I33</f>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="N34">
-        <f>M34+F34</f>
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="O34">
         <f>SQRT((LEDStripLocations.csv!I34-AY$6)^2 + (LEDStripLocations.csv!J34-AZ$6)^2 + (LEDStripLocations.csv!K34-BA$6)^2)/25.4</f>
@@ -25577,15 +26135,14 @@
       </c>
       <c r="D35">
         <f>LEDStripLocations.csv!R35+LEDStripLocations.csv!R91</f>
-        <v>1558</v>
+        <v>1558.4217692181392</v>
       </c>
       <c r="E35">
-        <f>FLOOR(LEDStripLocations.csv!R91/100*3,3)</f>
-        <v>18</v>
+        <f>CEILING(LEDStripLocations.csv!R91/100*3,1)</f>
+        <v>20</v>
       </c>
       <c r="F35">
-        <f>FLOOR(LEDStripLocations.csv!R35/100*3,3)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
@@ -25597,26 +26154,25 @@
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="J35">
         <v>5</v>
       </c>
       <c r="K35">
         <f>H35-E35</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L35">
         <f>E35</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <f>N35+E35</f>
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="N35">
         <f>I34</f>
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="O35">
         <f>SQRT((LEDStripLocations.csv!I35-AY$6)^2 + (LEDStripLocations.csv!J35-AZ$6)^2 + (LEDStripLocations.csv!K35-BA$6)^2)/25.4</f>
@@ -25734,19 +26290,18 @@
       </c>
       <c r="D36">
         <f>LEDStripLocations.csv!R36+LEDStripLocations.csv!R92</f>
-        <v>1505</v>
+        <v>1504.6957404674786</v>
       </c>
       <c r="E36">
-        <f>FLOOR(LEDStripLocations.csv!R92/100*3,3)</f>
         <v>18</v>
       </c>
       <c r="F36">
-        <f>FLOOR(LEDStripLocations.csv!R36/100*3,3)</f>
-        <v>24</v>
+        <f>CEILING(LEDStripLocations.csv!R36/100*3,1)</f>
+        <v>27</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
@@ -25754,26 +26309,24 @@
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="J36">
         <v>5</v>
       </c>
       <c r="K36">
         <f>F36</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L36">
         <f>H36-F36</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <f>I35</f>
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N36">
-        <f>M36+F36</f>
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="O36">
         <f>SQRT((LEDStripLocations.csv!I36-AY$6)^2 + (LEDStripLocations.csv!J36-AZ$6)^2 + (LEDStripLocations.csv!K36-BA$6)^2)/25.4</f>
@@ -25891,19 +26444,19 @@
       </c>
       <c r="D37">
         <f>LEDStripLocations.csv!R37+LEDStripLocations.csv!R93</f>
-        <v>1435</v>
+        <v>1434.8772979114069</v>
       </c>
       <c r="E37">
-        <f>FLOOR(LEDStripLocations.csv!R93/100*3,3)</f>
-        <v>18</v>
+        <f>CEILING(LEDStripLocations.csv!R93/100*3,1)</f>
+        <v>19</v>
       </c>
       <c r="F37">
-        <f>FLOOR(LEDStripLocations.csv!R37/100*3,3)</f>
-        <v>24</v>
+        <f>CEILING(LEDStripLocations.csv!R37/100*3,1)</f>
+        <v>25</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
@@ -25911,26 +26464,25 @@
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="J37">
         <v>5</v>
       </c>
       <c r="K37">
         <f>H37-E37</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L37">
         <f>E37</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <f>N37+E37</f>
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="N37">
         <f>I36</f>
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="O37">
         <f>SQRT((LEDStripLocations.csv!I37-AY$6)^2 + (LEDStripLocations.csv!J37-AZ$6)^2 + (LEDStripLocations.csv!K37-BA$6)^2)/25.4</f>
@@ -26048,19 +26600,19 @@
       </c>
       <c r="D38">
         <f>LEDStripLocations.csv!R38+LEDStripLocations.csv!R94</f>
-        <v>1481</v>
+        <v>1480.9085813068577</v>
       </c>
       <c r="E38">
-        <f>FLOOR(LEDStripLocations.csv!R94/100*3,3)</f>
-        <v>18</v>
+        <f>CEILING(LEDStripLocations.csv!R94/100*3,1)</f>
+        <v>19</v>
       </c>
       <c r="F38">
-        <f>FLOOR(LEDStripLocations.csv!R38/100*3,3)</f>
-        <v>24</v>
+        <f>CEILING(LEDStripLocations.csv!R38/100*3,1)</f>
+        <v>26</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
@@ -26068,26 +26620,24 @@
       </c>
       <c r="I38">
         <f t="shared" si="2"/>
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="J38">
         <v>5</v>
       </c>
       <c r="K38">
         <f>F38</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L38">
         <f>H38-F38</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <f>I37</f>
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="N38">
-        <f>M38+F38</f>
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="O38">
         <f>SQRT((LEDStripLocations.csv!I38-AY$6)^2 + (LEDStripLocations.csv!J38-AZ$6)^2 + (LEDStripLocations.csv!K38-BA$6)^2)/25.4</f>
@@ -26205,19 +26755,19 @@
       </c>
       <c r="D39">
         <f>LEDStripLocations.csv!R39+LEDStripLocations.csv!R95</f>
-        <v>1418</v>
+        <v>1417.6947190434803</v>
       </c>
       <c r="E39">
-        <f>FLOOR(LEDStripLocations.csv!R95/100*3,3)</f>
-        <v>18</v>
+        <f>CEILING(LEDStripLocations.csv!R95/100*3,1)</f>
+        <v>19</v>
       </c>
       <c r="F39">
-        <f>FLOOR(LEDStripLocations.csv!R39/100*3,3)</f>
-        <v>21</v>
+        <f>CEILING(LEDStripLocations.csv!R39/100*3,1)</f>
+        <v>24</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
@@ -26232,18 +26782,17 @@
       </c>
       <c r="K39">
         <f>F39</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L39">
         <f>H39-F39</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <f>M39+F39</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O39">
         <f>SQRT((LEDStripLocations.csv!I39-AY$6)^2 + (LEDStripLocations.csv!J39-AZ$6)^2 + (LEDStripLocations.csv!K39-BA$6)^2)/25.4</f>
@@ -26361,15 +26910,14 @@
       </c>
       <c r="D40">
         <f>LEDStripLocations.csv!R40+LEDStripLocations.csv!R96</f>
-        <v>1560</v>
+        <v>1559.6599716021437</v>
       </c>
       <c r="E40">
-        <f>FLOOR(LEDStripLocations.csv!R96/100*3,3)</f>
-        <v>18</v>
+        <f>CEILING(LEDStripLocations.csv!R96/100*3,1)</f>
+        <v>19</v>
       </c>
       <c r="F40">
-        <f>FLOOR(LEDStripLocations.csv!R40/100*3,3)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
@@ -26388,14 +26936,13 @@
       </c>
       <c r="K40">
         <f>H40-E40</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L40">
         <f>E40</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <f>N40+E40</f>
         <v>63</v>
       </c>
       <c r="N40">
@@ -26518,19 +27065,19 @@
       </c>
       <c r="D41">
         <f>LEDStripLocations.csv!R41+LEDStripLocations.csv!R97</f>
-        <v>1487</v>
+        <v>1486.3417446146605</v>
       </c>
       <c r="E41">
-        <f>FLOOR(LEDStripLocations.csv!R97/100*3,3)</f>
-        <v>18</v>
+        <f>CEILING(LEDStripLocations.csv!R97/100*3,1)</f>
+        <v>19</v>
       </c>
       <c r="F41">
-        <f>FLOOR(LEDStripLocations.csv!R41/100*3,3)</f>
-        <v>24</v>
+        <f>CEILING(LEDStripLocations.csv!R41/100*3,1)</f>
+        <v>26</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
@@ -26545,19 +27092,17 @@
       </c>
       <c r="K41">
         <f>F41</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L41">
         <f>H41-F41</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <f>I40</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N41">
-        <f>M41+F41</f>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O41">
         <f>SQRT((LEDStripLocations.csv!I41-AY$6)^2 + (LEDStripLocations.csv!J41-AZ$6)^2 + (LEDStripLocations.csv!K41-BA$6)^2)/25.4</f>
@@ -26675,19 +27220,19 @@
       </c>
       <c r="D42">
         <f>LEDStripLocations.csv!R42+LEDStripLocations.csv!R98</f>
-        <v>1356</v>
+        <v>1355.6514773842066</v>
       </c>
       <c r="E42">
-        <f>FLOOR(LEDStripLocations.csv!R98/100*3,3)</f>
-        <v>18</v>
+        <f>CEILING(LEDStripLocations.csv!R98/100*3,1)</f>
+        <v>19</v>
       </c>
       <c r="F42">
-        <f>FLOOR(LEDStripLocations.csv!R42/100*3,3)</f>
-        <v>21</v>
+        <f>CEILING(LEDStripLocations.csv!R42/100*3,1)</f>
+        <v>22</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H42">
         <f t="shared" si="1"/>
@@ -26702,14 +27247,13 @@
       </c>
       <c r="K42">
         <f>H42-E42</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L42">
         <f>E42</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <f>N42+E42</f>
         <v>153</v>
       </c>
       <c r="N42">
@@ -26832,19 +27376,18 @@
       </c>
       <c r="D43">
         <f>LEDStripLocations.csv!R43+LEDStripLocations.csv!R99</f>
-        <v>1267</v>
+        <v>1267.1749688827554</v>
       </c>
       <c r="E43">
-        <f>FLOOR(LEDStripLocations.csv!R99/100*3,3)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F43">
-        <f>FLOOR(LEDStripLocations.csv!R43/100*3,3)</f>
-        <v>18</v>
+        <f>CEILING(LEDStripLocations.csv!R43/100*3,1)</f>
+        <v>21</v>
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
@@ -26859,19 +27402,17 @@
       </c>
       <c r="K43">
         <f>F43</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L43">
         <f>H43-F43</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <f>I42</f>
         <v>180</v>
       </c>
       <c r="N43">
-        <f>M43+F43</f>
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O43">
         <f>SQRT((LEDStripLocations.csv!I43-AY$6)^2 + (LEDStripLocations.csv!J43-AZ$6)^2 + (LEDStripLocations.csv!K43-BA$6)^2)/25.4</f>
@@ -26989,19 +27530,18 @@
       </c>
       <c r="D44">
         <f>LEDStripLocations.csv!R44+LEDStripLocations.csv!R100</f>
-        <v>1524</v>
+        <v>1523.8051325040708</v>
       </c>
       <c r="E44">
-        <f>FLOOR(LEDStripLocations.csv!R100/100*3,3)</f>
-        <v>15</v>
+        <f>CEILING(LEDStripLocations.csv!R100/100*3,1)</f>
+        <v>18</v>
       </c>
       <c r="F44">
-        <f>FLOOR(LEDStripLocations.csv!R44/100*3,3)</f>
         <v>27</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
@@ -27016,15 +27556,14 @@
       </c>
       <c r="K44">
         <f>H44-E44</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L44">
         <f>E44</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <f>N44+E44</f>
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N44">
         <f>I43</f>
@@ -27146,19 +27685,19 @@
       </c>
       <c r="D45">
         <f>LEDStripLocations.csv!R45+LEDStripLocations.csv!R101</f>
-        <v>1432</v>
+        <v>1432.2425907596439</v>
       </c>
       <c r="E45">
-        <f>FLOOR(LEDStripLocations.csv!R101/100*3,3)</f>
-        <v>15</v>
+        <f>CEILING(LEDStripLocations.csv!R101/100*3,1)</f>
+        <v>17</v>
       </c>
       <c r="F45">
-        <f>FLOOR(LEDStripLocations.csv!R45/100*3,3)</f>
-        <v>24</v>
+        <f>CEILING(LEDStripLocations.csv!R45/100*3,1)</f>
+        <v>27</v>
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
@@ -27173,19 +27712,17 @@
       </c>
       <c r="K45">
         <f>F45</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L45">
         <f>H45-F45</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <f>I44</f>
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N45">
-        <f>M45+F45</f>
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="O45">
         <f>SQRT((LEDStripLocations.csv!I45-AY$6)^2 + (LEDStripLocations.csv!J45-AZ$6)^2 + (LEDStripLocations.csv!K45-BA$6)^2)/25.4</f>
@@ -27303,19 +27840,19 @@
       </c>
       <c r="D46">
         <f>LEDStripLocations.csv!R46+LEDStripLocations.csv!R102</f>
-        <v>1231</v>
+        <v>1230.9474902774455</v>
       </c>
       <c r="E46">
-        <f>FLOOR(LEDStripLocations.csv!R102/100*3,3)</f>
-        <v>15</v>
+        <f>CEILING(LEDStripLocations.csv!R102/100*3,1)</f>
+        <v>16</v>
       </c>
       <c r="F46">
-        <f>FLOOR(LEDStripLocations.csv!R46/100*3,3)</f>
-        <v>21</v>
+        <f>CEILING(LEDStripLocations.csv!R46/100*3,1)</f>
+        <v>22</v>
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
@@ -27330,14 +27867,13 @@
       </c>
       <c r="K46">
         <f>H46-E46</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L46">
         <f>E46</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <f>N46+E46</f>
         <v>323</v>
       </c>
       <c r="N46">
@@ -27460,19 +27996,19 @@
       </c>
       <c r="D47">
         <f>LEDStripLocations.csv!R47+LEDStripLocations.csv!R103</f>
-        <v>1182</v>
+        <v>1182.2277436237878</v>
       </c>
       <c r="E47">
-        <f>FLOOR(LEDStripLocations.csv!R103/100*3,3)</f>
-        <v>12</v>
+        <f>CEILING(LEDStripLocations.csv!R103/100*3,1)</f>
+        <v>14</v>
       </c>
       <c r="F47">
-        <f>FLOOR(LEDStripLocations.csv!R47/100*3,3)</f>
-        <v>21</v>
+        <f>CEILING(LEDStripLocations.csv!R47/100*3,1)</f>
+        <v>22</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <f t="shared" si="1"/>
@@ -27487,18 +28023,17 @@
       </c>
       <c r="K47">
         <f>F47</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L47">
         <f>H47-F47</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N47">
-        <f>M47+F47</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O47">
         <f>SQRT((LEDStripLocations.csv!I47-AY$6)^2 + (LEDStripLocations.csv!J47-AZ$6)^2 + (LEDStripLocations.csv!K47-BA$6)^2)/25.4</f>
@@ -27616,19 +28151,19 @@
       </c>
       <c r="D48">
         <f>LEDStripLocations.csv!R48+LEDStripLocations.csv!R104</f>
-        <v>1408</v>
+        <v>1408.0040164089378</v>
       </c>
       <c r="E48">
-        <f>FLOOR(LEDStripLocations.csv!R104/100*3,3)</f>
-        <v>12</v>
+        <f>CEILING(LEDStripLocations.csv!R104/100*3,1)</f>
+        <v>13</v>
       </c>
       <c r="F48">
-        <f>FLOOR(LEDStripLocations.csv!R48/100*3,3)</f>
-        <v>27</v>
+        <f>CEILING(LEDStripLocations.csv!R48/100*3,1)</f>
+        <v>30</v>
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H48">
         <f t="shared" si="1"/>
@@ -27643,14 +28178,13 @@
       </c>
       <c r="K48">
         <f>H48-E48</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L48">
         <f>E48</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <f>N48+E48</f>
         <v>50</v>
       </c>
       <c r="N48">
@@ -27773,19 +28307,19 @@
       </c>
       <c r="D49">
         <f>LEDStripLocations.csv!R49+LEDStripLocations.csv!R105</f>
-        <v>1324</v>
+        <v>1323.7844228265274</v>
       </c>
       <c r="E49">
-        <f>FLOOR(LEDStripLocations.csv!R105/100*3,3)</f>
-        <v>12</v>
+        <f>CEILING(LEDStripLocations.csv!R105/100*3,1)</f>
+        <v>13</v>
       </c>
       <c r="F49">
-        <f>FLOOR(LEDStripLocations.csv!R49/100*3,3)</f>
-        <v>27</v>
+        <f>CEILING(LEDStripLocations.csv!R49/100*3,1)</f>
+        <v>28</v>
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H49">
         <f t="shared" si="1"/>
@@ -27800,19 +28334,17 @@
       </c>
       <c r="K49">
         <f>F49</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L49">
         <f>H49-F49</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <f>I48</f>
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N49">
-        <f>M49+F49</f>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="O49">
         <f>SQRT((LEDStripLocations.csv!I49-AY$6)^2 + (LEDStripLocations.csv!J49-AZ$6)^2 + (LEDStripLocations.csv!K49-BA$6)^2)/25.4</f>
@@ -27930,19 +28462,19 @@
       </c>
       <c r="D50">
         <f>LEDStripLocations.csv!R50+LEDStripLocations.csv!R106</f>
-        <v>1216</v>
+        <v>1216.3584397863019</v>
       </c>
       <c r="E50">
-        <f>FLOOR(LEDStripLocations.csv!R106/100*3,3)</f>
-        <v>12</v>
+        <f>CEILING(LEDStripLocations.csv!R106/100*3,1)</f>
+        <v>13</v>
       </c>
       <c r="F50">
-        <f>FLOOR(LEDStripLocations.csv!R50/100*3,3)</f>
-        <v>24</v>
+        <f>CEILING(LEDStripLocations.csv!R50/100*3,1)</f>
+        <v>25</v>
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H50">
         <f t="shared" si="1"/>
@@ -27957,14 +28489,13 @@
       </c>
       <c r="K50">
         <f>H50-E50</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L50">
         <f>E50</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <f>N50+E50</f>
         <v>140</v>
       </c>
       <c r="N50">
@@ -28087,19 +28618,19 @@
       </c>
       <c r="D51">
         <f>LEDStripLocations.csv!R51+LEDStripLocations.csv!R107</f>
-        <v>1376</v>
+        <v>1376.8035912389894</v>
       </c>
       <c r="E51">
-        <f>FLOOR(LEDStripLocations.csv!R107/100*3,3)</f>
-        <v>9</v>
+        <f>CEILING(LEDStripLocations.csv!R107/100*3,1)</f>
+        <v>12</v>
       </c>
       <c r="F51">
-        <f>FLOOR(LEDStripLocations.csv!R51/100*3,3)</f>
-        <v>30</v>
+        <f>CEILING(LEDStripLocations.csv!R51/100*3,1)</f>
+        <v>31</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H51">
         <f t="shared" si="1"/>
@@ -28114,19 +28645,17 @@
       </c>
       <c r="K51">
         <f>F51</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L51">
         <f>H51-F51</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <f>I50</f>
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N51">
-        <f>M51+F51</f>
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O51">
         <f>SQRT((LEDStripLocations.csv!I51-AY$6)^2 + (LEDStripLocations.csv!J51-AZ$6)^2 + (LEDStripLocations.csv!K51-BA$6)^2)/25.4</f>
@@ -28244,19 +28773,19 @@
       </c>
       <c r="D52">
         <f>LEDStripLocations.csv!R52+LEDStripLocations.csv!R108</f>
-        <v>1391</v>
+        <v>1390.4073806752804</v>
       </c>
       <c r="E52">
-        <f>FLOOR(LEDStripLocations.csv!R108/100*3,3)</f>
-        <v>9</v>
+        <f>CEILING(LEDStripLocations.csv!R108/100*3,1)</f>
+        <v>12</v>
       </c>
       <c r="F52">
-        <f>FLOOR(LEDStripLocations.csv!R52/100*3,3)</f>
-        <v>30</v>
+        <f>CEILING(LEDStripLocations.csv!R52/100*3,1)</f>
+        <v>31</v>
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H52">
         <f t="shared" si="1"/>
@@ -28271,15 +28800,14 @@
       </c>
       <c r="K52">
         <f>H52-E52</f>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L52">
         <f>E52</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M52">
-        <f>N52+E52</f>
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N52">
         <f>I51</f>
@@ -28401,19 +28929,19 @@
       </c>
       <c r="D53">
         <f>LEDStripLocations.csv!R53+LEDStripLocations.csv!R109</f>
-        <v>1378</v>
+        <v>1377.6404328239141</v>
       </c>
       <c r="E53">
-        <f>FLOOR(LEDStripLocations.csv!R109/100*3,3)</f>
-        <v>9</v>
+        <f>CEILING(LEDStripLocations.csv!R109/100*3,1)</f>
+        <v>11</v>
       </c>
       <c r="F53">
-        <f>FLOOR(LEDStripLocations.csv!R53/100*3,3)</f>
-        <v>30</v>
+        <f>CEILING(LEDStripLocations.csv!R53/100*3,1)</f>
+        <v>31</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H53">
         <f t="shared" si="1"/>
@@ -28428,18 +28956,17 @@
       </c>
       <c r="K53">
         <f>F53</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L53">
         <f>H53-F53</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N53">
-        <f>M53+F53</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O53">
         <f>SQRT((LEDStripLocations.csv!I53-AY$6)^2 + (LEDStripLocations.csv!J53-AZ$6)^2 + (LEDStripLocations.csv!K53-BA$6)^2)/25.4</f>
@@ -28557,19 +29084,19 @@
       </c>
       <c r="D54">
         <f>LEDStripLocations.csv!R54+LEDStripLocations.csv!R110</f>
-        <v>1397</v>
+        <v>1396.4277115843784</v>
       </c>
       <c r="E54">
-        <f>FLOOR(LEDStripLocations.csv!R110/100*3,3)</f>
-        <v>9</v>
+        <f>CEILING(LEDStripLocations.csv!R110/100*3,1)</f>
+        <v>11</v>
       </c>
       <c r="F54">
-        <f>FLOOR(LEDStripLocations.csv!R54/100*3,3)</f>
-        <v>30</v>
+        <f>CEILING(LEDStripLocations.csv!R54/100*3,1)</f>
+        <v>32</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H54">
         <f t="shared" si="1"/>
@@ -28584,15 +29111,14 @@
       </c>
       <c r="K54">
         <f>H54-E54</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L54">
         <f>E54</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M54">
-        <f>N54+E54</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N54">
         <f>I53</f>
@@ -28714,19 +29240,19 @@
       </c>
       <c r="D55">
         <f>LEDStripLocations.csv!R55+LEDStripLocations.csv!R111</f>
-        <v>1428</v>
+        <v>1427.782871487273</v>
       </c>
       <c r="E55">
-        <f>FLOOR(LEDStripLocations.csv!R111/100*3,3)</f>
-        <v>9</v>
+        <f>CEILING(LEDStripLocations.csv!R111/100*3,1)</f>
+        <v>11</v>
       </c>
       <c r="F55">
-        <f>FLOOR(LEDStripLocations.csv!R55/100*3,3)</f>
-        <v>30</v>
+        <f>CEILING(LEDStripLocations.csv!R55/100*3,1)</f>
+        <v>32</v>
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H55">
         <f t="shared" si="1"/>
@@ -28741,19 +29267,17 @@
       </c>
       <c r="K55">
         <f>F55</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L55">
         <f>H55-F55</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M55">
-        <f>I54</f>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N55">
-        <f>M55+F55</f>
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O55">
         <f>SQRT((LEDStripLocations.csv!I55-AY$6)^2 + (LEDStripLocations.csv!J55-AZ$6)^2 + (LEDStripLocations.csv!K55-BA$6)^2)/25.4</f>
@@ -28871,19 +29395,19 @@
       </c>
       <c r="D56">
         <f>LEDStripLocations.csv!R56+LEDStripLocations.csv!R112</f>
-        <v>1438</v>
+        <v>1438.5954760479694</v>
       </c>
       <c r="E56">
-        <f>FLOOR(LEDStripLocations.csv!R112/100*3,3)</f>
-        <v>9</v>
+        <f>CEILING(LEDStripLocations.csv!R112/100*3,1)</f>
+        <v>12</v>
       </c>
       <c r="F56">
-        <f>FLOOR(LEDStripLocations.csv!R56/100*3,3)</f>
-        <v>30</v>
+        <f>CEILING(LEDStripLocations.csv!R56/100*3,1)</f>
+        <v>32</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H56">
         <f t="shared" si="1"/>
@@ -28898,15 +29422,14 @@
       </c>
       <c r="K56">
         <f>H56-E56</f>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L56">
         <f>E56</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M56">
-        <f>N56+E56</f>
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N56">
         <f>I55</f>
@@ -29028,46 +29551,46 @@
       </c>
       <c r="D57">
         <f>LEDStripLocations.csv!R57+LEDStripLocations.csv!R113</f>
-        <v>1491</v>
+        <v>1491.3407087470118</v>
       </c>
       <c r="E57">
-        <f>FLOOR(LEDStripLocations.csv!R113/100*3,3)</f>
-        <v>12</v>
+        <f>CEILING(LEDStripLocations.csv!R113/100*3,1)</f>
+        <v>13</v>
       </c>
       <c r="F57">
-        <f>FLOOR(LEDStripLocations.csv!R57/100*3,3)</f>
-        <v>30</v>
+        <f>CEILING(LEDStripLocations.csv!R57/100*3,1)</f>
+        <v>33</v>
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H57">
         <f>IF(G57&lt;31, 30, IF(G57 &lt; 39, 38, IF(G57&lt; 46, 45, IF(G57 &lt; 54, 53, IF(G57 &lt; 61, 60, IF(G57&lt; 69, 68, IF(G57&lt; 76, 75, 112)))))))</f>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I57">
         <f t="shared" si="2"/>
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="J57">
         <v>8</v>
       </c>
       <c r="K57">
         <f>F57</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L57">
         <f>H57-F57</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M57">
-        <f>I56</f>
-        <v>180</v>
+        <f>I56+H57-G57</f>
+        <v>187</v>
       </c>
       <c r="N57">
         <f>M57+F57</f>
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="O57">
         <f>SQRT((LEDStripLocations.csv!I57-AY$6)^2 + (LEDStripLocations.csv!J57-AZ$6)^2 + (LEDStripLocations.csv!K57-BA$6)^2)/25.4</f>
@@ -29168,6 +29691,36 @@
       <c r="AS57">
         <f>SQRT((LEDStripLocations.csv!$I113-$AY$4)^2 + (LEDStripLocations.csv!$J113-$AZ$4)^2 + (LEDStripLocations.csv!$K113-$BA$4)^2)/25.4</f>
         <v>46.596047497435713</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45">
+      <c r="I63">
+        <f>COUNTIF(H:H,30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:45">
+      <c r="I64">
+        <f>COUNTIF(H:H,38)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65">
+        <f>COUNTIF(H:H,45)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9">
+      <c r="I66">
+        <f>COUNTIF(H:H,53)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9">
+      <c r="I67">
+        <f>COUNTIF(H:H,60)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -29185,8 +29738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="L106" sqref="L106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -29239,12 +29792,12 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f ca="1">INDIRECT(CONCATENATE("Sheet1!K",B2+1))</f>
-        <v>18</v>
+        <f ca="1">INDIRECT(CONCATENATE("Sheet1!F",B2+1))</f>
+        <v>21</v>
       </c>
       <c r="G2">
         <f ca="1">INDIRECT(CONCATENATE("Sheet1!M",B2+1))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -29270,12 +29823,12 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <f ca="1">INDIRECT(CONCATENATE("Sheet1!L",B3+1))</f>
-        <v>12</v>
+        <f ca="1">INDIRECT(CONCATENATE("Sheet1!E",B3+1))</f>
+        <v>11</v>
       </c>
       <c r="G3">
         <f ca="1">INDIRECT(CONCATENATE("Sheet1!N",B3+1))</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -29301,12 +29854,12 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <f ca="1">INDIRECT(CONCATENATE("Sheet1!L",B4+1))</f>
-        <v>9</v>
+        <f ca="1">INDIRECT(CONCATENATE("Sheet1!E",B4+1))</f>
+        <v>11</v>
       </c>
       <c r="G4">
         <f ca="1">INDIRECT(CONCATENATE("Sheet1!N",B4+1))</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -29332,12 +29885,12 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <f ca="1">INDIRECT(CONCATENATE("Sheet1!K",B5+1))</f>
+        <f ca="1">INDIRECT(CONCATENATE("Sheet1!F",B5+1))</f>
         <v>21</v>
       </c>
       <c r="G5">
         <f ca="1">INDIRECT(CONCATENATE("Sheet1!M",B5+1))</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -29363,12 +29916,12 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F27" ca="1" si="2">INDIRECT(CONCATENATE("Sheet1!K",B6+1))</f>
-        <v>21</v>
+        <f t="shared" ref="F6:F37" ca="1" si="2">INDIRECT(CONCATENATE("Sheet1!F",B6+1))</f>
+        <v>24</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G27" ca="1" si="3">INDIRECT(CONCATENATE("Sheet1!M",B6+1))</f>
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -29394,12 +29947,12 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F27" ca="1" si="4">INDIRECT(CONCATENATE("Sheet1!L",B7+1))</f>
-        <v>17</v>
+        <f t="shared" ref="F7:F38" ca="1" si="4">INDIRECT(CONCATENATE("Sheet1!E",B7+1))</f>
+        <v>14</v>
       </c>
       <c r="G7">
         <f t="shared" ref="G7:G27" ca="1" si="5">INDIRECT(CONCATENATE("Sheet1!N",B7+1))</f>
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -29426,11 +29979,11 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -29456,12 +30009,12 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F27" ca="1" si="7">INDIRECT(CONCATENATE("Sheet1!K",B9+1))</f>
-        <v>26</v>
+        <f t="shared" ref="F9:F40" ca="1" si="7">INDIRECT(CONCATENATE("Sheet1!F",B9+1))</f>
+        <v>24</v>
       </c>
       <c r="G9">
         <f t="shared" ref="G9:G27" ca="1" si="8">INDIRECT(CONCATENATE("Sheet1!M",B9+1))</f>
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -29492,7 +30045,7 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="8"/>
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -29518,12 +30071,12 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F27" ca="1" si="11">INDIRECT(CONCATENATE("Sheet1!L",B11+1))</f>
-        <v>14</v>
+        <f t="shared" ref="F11:F42" ca="1" si="11">INDIRECT(CONCATENATE("Sheet1!E",B11+1))</f>
+        <v>13</v>
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G27" ca="1" si="12">INDIRECT(CONCATENATE("Sheet1!N",B11+1))</f>
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -29554,7 +30107,7 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="12"/>
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -29580,12 +30133,12 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F27" ca="1" si="15">INDIRECT(CONCATENATE("Sheet1!K",B13+1))</f>
-        <v>23</v>
+        <f t="shared" ref="F13:F44" ca="1" si="15">INDIRECT(CONCATENATE("Sheet1!F",B13+1))</f>
+        <v>19</v>
       </c>
       <c r="G13">
         <f t="shared" ref="G13:G27" ca="1" si="16">INDIRECT(CONCATENATE("Sheet1!M",B13+1))</f>
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -29612,11 +30165,11 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="15"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="16"/>
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -29642,12 +30195,12 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F27" ca="1" si="19">INDIRECT(CONCATENATE("Sheet1!L",B15+1))</f>
-        <v>21</v>
+        <f t="shared" ref="F15:F46" ca="1" si="19">INDIRECT(CONCATENATE("Sheet1!E",B15+1))</f>
+        <v>14</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15:G27" ca="1" si="20">INDIRECT(CONCATENATE("Sheet1!N",B15+1))</f>
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -29678,7 +30231,7 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="20"/>
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -29704,12 +30257,12 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F27" ca="1" si="23">INDIRECT(CONCATENATE("Sheet1!K",B17+1))</f>
-        <v>20</v>
+        <f t="shared" ref="F17:F48" ca="1" si="23">INDIRECT(CONCATENATE("Sheet1!F",B17+1))</f>
+        <v>19</v>
       </c>
       <c r="G17">
         <f t="shared" ref="G17:G27" ca="1" si="24">INDIRECT(CONCATENATE("Sheet1!M",B17+1))</f>
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -29736,11 +30289,11 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="23"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="24"/>
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -29766,12 +30319,12 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:F27" ca="1" si="27">INDIRECT(CONCATENATE("Sheet1!L",B19+1))</f>
-        <v>18</v>
+        <f t="shared" ref="F19:F50" ca="1" si="27">INDIRECT(CONCATENATE("Sheet1!E",B19+1))</f>
+        <v>19</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19:G27" ca="1" si="28">INDIRECT(CONCATENATE("Sheet1!N",B19+1))</f>
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -29798,11 +30351,11 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="27"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="28"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -29828,12 +30381,12 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:F27" ca="1" si="32">INDIRECT(CONCATENATE("Sheet1!K",B21+1))</f>
-        <v>21</v>
+        <f t="shared" ref="F21:F52" ca="1" si="32">INDIRECT(CONCATENATE("Sheet1!F",B21+1))</f>
+        <v>23</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G27" ca="1" si="33">INDIRECT(CONCATENATE("Sheet1!M",B21+1))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -29860,11 +30413,11 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="32"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="33"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -29890,8 +30443,8 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:F27" ca="1" si="36">INDIRECT(CONCATENATE("Sheet1!L",B23+1))</f>
-        <v>18</v>
+        <f t="shared" ref="F23:F54" ca="1" si="36">INDIRECT(CONCATENATE("Sheet1!E",B23+1))</f>
+        <v>20</v>
       </c>
       <c r="G23">
         <f t="shared" ref="G23:G27" ca="1" si="37">INDIRECT(CONCATENATE("Sheet1!N",B23+1))</f>
@@ -29922,7 +30475,7 @@
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="36"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="37"/>
@@ -29952,12 +30505,12 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:F27" ca="1" si="40">INDIRECT(CONCATENATE("Sheet1!K",B25+1))</f>
-        <v>30</v>
+        <f t="shared" ref="F25:F56" ca="1" si="40">INDIRECT(CONCATENATE("Sheet1!F",B25+1))</f>
+        <v>31</v>
       </c>
       <c r="G25">
         <f t="shared" ref="G25:G27" ca="1" si="41">INDIRECT(CONCATENATE("Sheet1!M",B25+1))</f>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -29984,11 +30537,11 @@
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="40"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="41"/>
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
@@ -30014,12 +30567,12 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27:F28" ca="1" si="44">INDIRECT(CONCATENATE("Sheet1!L",B27+1))</f>
-        <v>21</v>
+        <f t="shared" ref="F27:F58" ca="1" si="44">INDIRECT(CONCATENATE("Sheet1!E",B27+1))</f>
+        <v>22</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27:G28" ca="1" si="45">INDIRECT(CONCATENATE("Sheet1!N",B27+1))</f>
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -30046,11 +30599,11 @@
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="44"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="45"/>
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
@@ -30076,12 +30629,12 @@
         <v>2</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:F60" ca="1" si="50">INDIRECT(CONCATENATE("Sheet1!K",B29+1))</f>
-        <v>27</v>
+        <f t="shared" ref="F29:F60" ca="1" si="50">INDIRECT(CONCATENATE("Sheet1!F",B29+1))</f>
+        <v>30</v>
       </c>
       <c r="G29">
         <f t="shared" ref="G29:G60" ca="1" si="51">INDIRECT(CONCATENATE("Sheet1!M",B29+1))</f>
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -30108,11 +30661,11 @@
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="50"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="51"/>
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
@@ -30138,12 +30691,12 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:F94" ca="1" si="54">INDIRECT(CONCATENATE("Sheet1!L",B31+1))</f>
-        <v>36</v>
+        <f t="shared" ref="F31:F62" ca="1" si="54">INDIRECT(CONCATENATE("Sheet1!E",B31+1))</f>
+        <v>23</v>
       </c>
       <c r="G31">
         <f t="shared" ref="G31:G94" ca="1" si="55">INDIRECT(CONCATENATE("Sheet1!N",B31+1))</f>
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -30170,11 +30723,11 @@
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="54"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="55"/>
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="H32" s="1">
         <v>1</v>
@@ -30200,12 +30753,12 @@
         <v>2</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:F96" ca="1" si="58">INDIRECT(CONCATENATE("Sheet1!K",B33+1))</f>
-        <v>24</v>
+        <f t="shared" ref="F33:F64" ca="1" si="58">INDIRECT(CONCATENATE("Sheet1!F",B33+1))</f>
+        <v>25</v>
       </c>
       <c r="G33">
         <f t="shared" ref="G33:G96" ca="1" si="59">INDIRECT(CONCATENATE("Sheet1!M",B33+1))</f>
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -30232,11 +30785,11 @@
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="58"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="59"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -30262,12 +30815,12 @@
         <v>3</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F98" ca="1" si="62">INDIRECT(CONCATENATE("Sheet1!L",B35+1))</f>
-        <v>26</v>
+        <f t="shared" ref="F35:F66" ca="1" si="62">INDIRECT(CONCATENATE("Sheet1!E",B35+1))</f>
+        <v>23</v>
       </c>
       <c r="G35">
         <f t="shared" ref="G35:G98" ca="1" si="63">INDIRECT(CONCATENATE("Sheet1!N",B35+1))</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H35" s="1">
         <v>1</v>
@@ -30294,11 +30847,11 @@
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="62"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="63"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -30324,8 +30877,8 @@
         <v>3</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37:F100" ca="1" si="66">INDIRECT(CONCATENATE("Sheet1!K",B37+1))</f>
-        <v>24</v>
+        <f t="shared" ref="F37:F68" ca="1" si="66">INDIRECT(CONCATENATE("Sheet1!F",B37+1))</f>
+        <v>22</v>
       </c>
       <c r="G37">
         <f t="shared" ref="G37:G100" ca="1" si="67">INDIRECT(CONCATENATE("Sheet1!M",B37+1))</f>
@@ -30360,7 +30913,7 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="67"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -30386,12 +30939,12 @@
         <v>3</v>
       </c>
       <c r="F39">
-        <f t="shared" ref="F39:F102" ca="1" si="70">INDIRECT(CONCATENATE("Sheet1!L",B39+1))</f>
-        <v>23</v>
+        <f t="shared" ref="F39:F70" ca="1" si="70">INDIRECT(CONCATENATE("Sheet1!E",B39+1))</f>
+        <v>22</v>
       </c>
       <c r="G39">
         <f t="shared" ref="G39:G102" ca="1" si="71">INDIRECT(CONCATENATE("Sheet1!N",B39+1))</f>
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
@@ -30422,7 +30975,7 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="71"/>
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
@@ -30448,12 +31001,12 @@
         <v>3</v>
       </c>
       <c r="F41">
-        <f t="shared" ref="F41:F104" ca="1" si="74">INDIRECT(CONCATENATE("Sheet1!K",B41+1))</f>
-        <v>24</v>
+        <f t="shared" ref="F41:F72" ca="1" si="74">INDIRECT(CONCATENATE("Sheet1!F",B41+1))</f>
+        <v>23</v>
       </c>
       <c r="G41">
         <f t="shared" ref="G41:G104" ca="1" si="75">INDIRECT(CONCATENATE("Sheet1!M",B41+1))</f>
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H41" s="1">
         <v>1</v>
@@ -30484,7 +31037,7 @@
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="75"/>
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
@@ -30510,12 +31063,12 @@
         <v>3</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43:F106" ca="1" si="78">INDIRECT(CONCATENATE("Sheet1!L",B43+1))</f>
-        <v>23</v>
+        <f t="shared" ref="F43:F74" ca="1" si="78">INDIRECT(CONCATENATE("Sheet1!E",B43+1))</f>
+        <v>22</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43:G106" ca="1" si="79">INDIRECT(CONCATENATE("Sheet1!N",B43+1))</f>
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H43" s="1">
         <v>1</v>
@@ -30542,11 +31095,11 @@
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="78"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="79"/>
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
@@ -30572,12 +31125,12 @@
         <v>3</v>
       </c>
       <c r="F45">
-        <f t="shared" ref="F45:F108" ca="1" si="82">INDIRECT(CONCATENATE("Sheet1!K",B45+1))</f>
-        <v>32</v>
+        <f t="shared" ref="F45:F76" ca="1" si="82">INDIRECT(CONCATENATE("Sheet1!F",B45+1))</f>
+        <v>29</v>
       </c>
       <c r="G45">
         <f t="shared" ref="G45:G108" ca="1" si="83">INDIRECT(CONCATENATE("Sheet1!M",B45+1))</f>
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H45" s="1">
         <v>1</v>
@@ -30604,11 +31157,11 @@
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="82"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="83"/>
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -30634,12 +31187,12 @@
         <v>3</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47:F110" ca="1" si="86">INDIRECT(CONCATENATE("Sheet1!L",B47+1))</f>
-        <v>21</v>
+        <f t="shared" ref="F47:F78" ca="1" si="86">INDIRECT(CONCATENATE("Sheet1!E",B47+1))</f>
+        <v>23</v>
       </c>
       <c r="G47">
         <f t="shared" ref="G47:G110" ca="1" si="87">INDIRECT(CONCATENATE("Sheet1!N",B47+1))</f>
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H47" s="1">
         <v>1</v>
@@ -30666,11 +31219,11 @@
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="86"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="87"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H48" s="1">
         <v>1</v>
@@ -30696,8 +31249,8 @@
         <v>4</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F49:F112" ca="1" si="90">INDIRECT(CONCATENATE("Sheet1!K",B49+1))</f>
-        <v>24</v>
+        <f t="shared" ref="F49:F80" ca="1" si="90">INDIRECT(CONCATENATE("Sheet1!F",B49+1))</f>
+        <v>23</v>
       </c>
       <c r="G49">
         <f t="shared" ref="G49:G112" ca="1" si="91">INDIRECT(CONCATENATE("Sheet1!M",B49+1))</f>
@@ -30728,11 +31281,11 @@
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="90"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="91"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H50" s="1">
         <v>1</v>
@@ -30758,8 +31311,8 @@
         <v>4</v>
       </c>
       <c r="F51">
-        <f t="shared" ref="F51:F113" ca="1" si="94">INDIRECT(CONCATENATE("Sheet1!L",B51+1))</f>
-        <v>21</v>
+        <f t="shared" ref="F51:F82" ca="1" si="94">INDIRECT(CONCATENATE("Sheet1!E",B51+1))</f>
+        <v>23</v>
       </c>
       <c r="G51">
         <f t="shared" ref="G51:G113" ca="1" si="95">INDIRECT(CONCATENATE("Sheet1!N",B51+1))</f>
@@ -30790,11 +31343,11 @@
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="94"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="95"/>
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H52" s="1">
         <v>1</v>
@@ -30820,12 +31373,12 @@
         <v>4</v>
       </c>
       <c r="F53">
-        <f t="shared" ref="F53:F84" ca="1" si="98">INDIRECT(CONCATENATE("Sheet1!K",B53+1))</f>
-        <v>27</v>
+        <f t="shared" ref="F53:F84" ca="1" si="98">INDIRECT(CONCATENATE("Sheet1!F",B53+1))</f>
+        <v>30</v>
       </c>
       <c r="G53">
         <f t="shared" ref="G53:G84" ca="1" si="99">INDIRECT(CONCATENATE("Sheet1!M",B53+1))</f>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
@@ -30852,11 +31405,11 @@
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="98"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="99"/>
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H54" s="1">
         <v>1</v>
@@ -30882,12 +31435,12 @@
         <v>4</v>
       </c>
       <c r="F55">
-        <f t="shared" ref="F55:F113" ca="1" si="102">INDIRECT(CONCATENATE("Sheet1!L",B55+1))</f>
-        <v>21</v>
+        <f t="shared" ref="F55:F86" ca="1" si="102">INDIRECT(CONCATENATE("Sheet1!E",B55+1))</f>
+        <v>22</v>
       </c>
       <c r="G55">
         <f t="shared" ref="G55:G113" ca="1" si="103">INDIRECT(CONCATENATE("Sheet1!N",B55+1))</f>
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
@@ -30914,7 +31467,7 @@
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="102"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="103"/>
@@ -30944,12 +31497,12 @@
         <v>4</v>
       </c>
       <c r="F57">
-        <f t="shared" ref="F57:F113" ca="1" si="106">INDIRECT(CONCATENATE("Sheet1!K",B57+1))</f>
-        <v>27</v>
+        <f t="shared" ref="F57:F88" ca="1" si="106">INDIRECT(CONCATENATE("Sheet1!F",B57+1))</f>
+        <v>30</v>
       </c>
       <c r="G57">
         <f t="shared" ref="G57:G113" ca="1" si="107">INDIRECT(CONCATENATE("Sheet1!M",B57+1))</f>
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -30976,11 +31529,11 @@
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="106"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="107"/>
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H58" s="1">
         <v>1</v>
@@ -31006,12 +31559,12 @@
         <v>4</v>
       </c>
       <c r="F59">
-        <f t="shared" ref="F59:F113" ca="1" si="110">INDIRECT(CONCATENATE("Sheet1!L",B59+1))</f>
-        <v>21</v>
+        <f t="shared" ref="F59:F90" ca="1" si="110">INDIRECT(CONCATENATE("Sheet1!E",B59+1))</f>
+        <v>22</v>
       </c>
       <c r="G59">
         <f t="shared" ref="G59:G113" ca="1" si="111">INDIRECT(CONCATENATE("Sheet1!N",B59+1))</f>
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
@@ -31038,11 +31591,11 @@
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="110"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="111"/>
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H60" s="1">
         <v>1</v>
@@ -31068,12 +31621,12 @@
         <v>4</v>
       </c>
       <c r="F61">
-        <f t="shared" ref="F61:F113" ca="1" si="114">INDIRECT(CONCATENATE("Sheet1!K",B61+1))</f>
-        <v>30</v>
+        <f t="shared" ref="F61:F92" ca="1" si="114">INDIRECT(CONCATENATE("Sheet1!F",B61+1))</f>
+        <v>31</v>
       </c>
       <c r="G61">
         <f t="shared" ref="G61:G113" ca="1" si="115">INDIRECT(CONCATENATE("Sheet1!M",B61+1))</f>
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
@@ -31100,7 +31653,7 @@
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="114"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="115"/>
@@ -31130,12 +31683,12 @@
         <v>5</v>
       </c>
       <c r="F63">
-        <f t="shared" ref="F63:F113" ca="1" si="118">INDIRECT(CONCATENATE("Sheet1!L",B63+1))</f>
-        <v>21</v>
+        <f t="shared" ref="F63:F94" ca="1" si="118">INDIRECT(CONCATENATE("Sheet1!E",B63+1))</f>
+        <v>19</v>
       </c>
       <c r="G63">
         <f t="shared" ref="G63:G113" ca="1" si="119">INDIRECT(CONCATENATE("Sheet1!N",B63+1))</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H63" s="1">
         <v>1</v>
@@ -31162,7 +31715,7 @@
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="118"/>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="119"/>
@@ -31192,12 +31745,12 @@
         <v>5</v>
       </c>
       <c r="F65">
-        <f t="shared" ref="F65:F113" ca="1" si="122">INDIRECT(CONCATENATE("Sheet1!K",B65+1))</f>
-        <v>39</v>
+        <f t="shared" ref="F65:F96" ca="1" si="122">INDIRECT(CONCATENATE("Sheet1!F",B65+1))</f>
+        <v>23</v>
       </c>
       <c r="G65">
         <f t="shared" ref="G65:G113" ca="1" si="123">INDIRECT(CONCATENATE("Sheet1!M",B65+1))</f>
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="H65" s="1">
         <v>1</v>
@@ -31224,11 +31777,11 @@
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="122"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="123"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H66" s="1">
         <v>0</v>
@@ -31254,12 +31807,12 @@
         <v>5</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F113" ca="1" si="126">INDIRECT(CONCATENATE("Sheet1!L",B67+1))</f>
-        <v>21</v>
+        <f t="shared" ref="F67:F113" ca="1" si="126">INDIRECT(CONCATENATE("Sheet1!E",B67+1))</f>
+        <v>18</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G113" ca="1" si="127">INDIRECT(CONCATENATE("Sheet1!N",B67+1))</f>
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="H67" s="1">
         <v>1</v>
@@ -31286,11 +31839,11 @@
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="126"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="127"/>
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
@@ -31316,12 +31869,12 @@
         <v>5</v>
       </c>
       <c r="F69">
-        <f t="shared" ref="F69:F113" ca="1" si="130">INDIRECT(CONCATENATE("Sheet1!K",B69+1))</f>
-        <v>27</v>
+        <f t="shared" ref="F69:F113" ca="1" si="130">INDIRECT(CONCATENATE("Sheet1!F",B69+1))</f>
+        <v>25</v>
       </c>
       <c r="G69">
         <f t="shared" ref="G69:G113" ca="1" si="131">INDIRECT(CONCATENATE("Sheet1!M",B69+1))</f>
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="H69" s="1">
         <v>1</v>
@@ -31348,11 +31901,11 @@
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="130"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="131"/>
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="H70" s="1">
         <v>0</v>
@@ -31378,12 +31931,12 @@
         <v>5</v>
       </c>
       <c r="F71">
-        <f t="shared" ref="F71:F113" ca="1" si="134">INDIRECT(CONCATENATE("Sheet1!L",B71+1))</f>
-        <v>21</v>
+        <f t="shared" ref="F71:F113" ca="1" si="134">INDIRECT(CONCATENATE("Sheet1!E",B71+1))</f>
+        <v>18</v>
       </c>
       <c r="G71">
         <f t="shared" ref="G71:G113" ca="1" si="135">INDIRECT(CONCATENATE("Sheet1!N",B71+1))</f>
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="H71" s="1">
         <v>1</v>
@@ -31410,11 +31963,11 @@
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="134"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="135"/>
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="H72" s="1">
         <v>0</v>
@@ -31440,12 +31993,12 @@
         <v>5</v>
       </c>
       <c r="F73">
-        <f t="shared" ref="F73:F113" ca="1" si="138">INDIRECT(CONCATENATE("Sheet1!K",B73+1))</f>
-        <v>27</v>
+        <f t="shared" ref="F73:F113" ca="1" si="138">INDIRECT(CONCATENATE("Sheet1!F",B73+1))</f>
+        <v>25</v>
       </c>
       <c r="G73">
         <f t="shared" ref="G73:G113" ca="1" si="139">INDIRECT(CONCATENATE("Sheet1!M",B73+1))</f>
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="H73" s="1">
         <v>1</v>
@@ -31472,11 +32025,11 @@
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="138"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="139"/>
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="H74" s="1">
         <v>0</v>
@@ -31502,12 +32055,12 @@
         <v>5</v>
       </c>
       <c r="F75">
-        <f t="shared" ref="F75:F113" ca="1" si="142">INDIRECT(CONCATENATE("Sheet1!L",B75+1))</f>
-        <v>21</v>
+        <f t="shared" ref="F75:F113" ca="1" si="142">INDIRECT(CONCATENATE("Sheet1!E",B75+1))</f>
+        <v>19</v>
       </c>
       <c r="G75">
         <f t="shared" ref="G75:G113" ca="1" si="143">INDIRECT(CONCATENATE("Sheet1!N",B75+1))</f>
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H75" s="1">
         <v>1</v>
@@ -31534,11 +32087,11 @@
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="142"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="143"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H76" s="1">
         <v>1</v>
@@ -31564,12 +32117,12 @@
         <v>6</v>
       </c>
       <c r="F77">
-        <f t="shared" ref="F77:F113" ca="1" si="146">INDIRECT(CONCATENATE("Sheet1!K",B77+1))</f>
-        <v>21</v>
+        <f t="shared" ref="F77:F113" ca="1" si="146">INDIRECT(CONCATENATE("Sheet1!F",B77+1))</f>
+        <v>24</v>
       </c>
       <c r="G77">
         <f t="shared" ref="G77:G113" ca="1" si="147">INDIRECT(CONCATENATE("Sheet1!M",B77+1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H77" s="1">
         <v>0</v>
@@ -31596,7 +32149,7 @@
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="146"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="147"/>
@@ -31626,8 +32179,8 @@
         <v>6</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79:F113" ca="1" si="150">INDIRECT(CONCATENATE("Sheet1!L",B79+1))</f>
-        <v>18</v>
+        <f t="shared" ref="F79:F113" ca="1" si="150">INDIRECT(CONCATENATE("Sheet1!E",B79+1))</f>
+        <v>19</v>
       </c>
       <c r="G79">
         <f t="shared" ref="G79:G113" ca="1" si="151">INDIRECT(CONCATENATE("Sheet1!N",B79+1))</f>
@@ -31658,11 +32211,11 @@
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="150"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="151"/>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H80" s="1">
         <v>1</v>
@@ -31688,12 +32241,12 @@
         <v>6</v>
       </c>
       <c r="F81">
-        <f t="shared" ref="F81:F113" ca="1" si="154">INDIRECT(CONCATENATE("Sheet1!K",B81+1))</f>
-        <v>24</v>
+        <f t="shared" ref="F81:F113" ca="1" si="154">INDIRECT(CONCATENATE("Sheet1!F",B81+1))</f>
+        <v>26</v>
       </c>
       <c r="G81">
         <f t="shared" ref="G81:G113" ca="1" si="155">INDIRECT(CONCATENATE("Sheet1!M",B81+1))</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H81" s="1">
         <v>0</v>
@@ -31720,7 +32273,7 @@
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="154"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="155"/>
@@ -31750,8 +32303,8 @@
         <v>6</v>
       </c>
       <c r="F83">
-        <f t="shared" ref="F83:F113" ca="1" si="158">INDIRECT(CONCATENATE("Sheet1!L",B83+1))</f>
-        <v>18</v>
+        <f t="shared" ref="F83:F113" ca="1" si="158">INDIRECT(CONCATENATE("Sheet1!E",B83+1))</f>
+        <v>19</v>
       </c>
       <c r="G83">
         <f t="shared" ref="G83:G113" ca="1" si="159">INDIRECT(CONCATENATE("Sheet1!N",B83+1))</f>
@@ -31782,11 +32335,11 @@
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="158"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="159"/>
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H84" s="1">
         <v>1</v>
@@ -31812,8 +32365,8 @@
         <v>6</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F85:F113" ca="1" si="162">INDIRECT(CONCATENATE("Sheet1!K",B85+1))</f>
-        <v>18</v>
+        <f t="shared" ref="F85:F113" ca="1" si="162">INDIRECT(CONCATENATE("Sheet1!F",B85+1))</f>
+        <v>21</v>
       </c>
       <c r="G85">
         <f t="shared" ref="G85:G113" ca="1" si="163">INDIRECT(CONCATENATE("Sheet1!M",B85+1))</f>
@@ -31844,11 +32397,11 @@
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="162"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="163"/>
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H86" s="1">
         <v>1</v>
@@ -31874,8 +32427,8 @@
         <v>6</v>
       </c>
       <c r="F87">
-        <f t="shared" ref="F87:F113" ca="1" si="166">INDIRECT(CONCATENATE("Sheet1!L",B87+1))</f>
-        <v>15</v>
+        <f t="shared" ref="F87:F113" ca="1" si="166">INDIRECT(CONCATENATE("Sheet1!E",B87+1))</f>
+        <v>18</v>
       </c>
       <c r="G87">
         <f t="shared" ref="G87:G113" ca="1" si="167">INDIRECT(CONCATENATE("Sheet1!N",B87+1))</f>
@@ -31906,11 +32459,11 @@
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="166"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="167"/>
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H88" s="1">
         <v>1</v>
@@ -31936,12 +32489,12 @@
         <v>6</v>
       </c>
       <c r="F89">
-        <f t="shared" ref="F89:F113" ca="1" si="170">INDIRECT(CONCATENATE("Sheet1!K",B89+1))</f>
-        <v>24</v>
+        <f t="shared" ref="F89:F113" ca="1" si="170">INDIRECT(CONCATENATE("Sheet1!F",B89+1))</f>
+        <v>27</v>
       </c>
       <c r="G89">
         <f t="shared" ref="G89:G113" ca="1" si="171">INDIRECT(CONCATENATE("Sheet1!M",B89+1))</f>
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H89" s="1">
         <v>0</v>
@@ -31968,7 +32521,7 @@
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="170"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="171"/>
@@ -31998,8 +32551,8 @@
         <v>6</v>
       </c>
       <c r="F91">
-        <f t="shared" ref="F91:F113" ca="1" si="174">INDIRECT(CONCATENATE("Sheet1!L",B91+1))</f>
-        <v>15</v>
+        <f t="shared" ref="F91:F113" ca="1" si="174">INDIRECT(CONCATENATE("Sheet1!E",B91+1))</f>
+        <v>16</v>
       </c>
       <c r="G91">
         <f t="shared" ref="G91:G113" ca="1" si="175">INDIRECT(CONCATENATE("Sheet1!N",B91+1))</f>
@@ -32030,11 +32583,11 @@
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="174"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="175"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H92" s="1">
         <v>1</v>
@@ -32060,12 +32613,12 @@
         <v>7</v>
       </c>
       <c r="F93">
-        <f t="shared" ref="F93:F113" ca="1" si="180">INDIRECT(CONCATENATE("Sheet1!K",B93+1))</f>
-        <v>21</v>
+        <f t="shared" ref="F93:F113" ca="1" si="180">INDIRECT(CONCATENATE("Sheet1!F",B93+1))</f>
+        <v>22</v>
       </c>
       <c r="G93">
         <f t="shared" ref="G93:G113" ca="1" si="181">INDIRECT(CONCATENATE("Sheet1!M",B93+1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H93" s="1">
         <v>0</v>
@@ -32092,7 +32645,7 @@
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="180"/>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="181"/>
@@ -32122,8 +32675,8 @@
         <v>7</v>
       </c>
       <c r="F95">
-        <f t="shared" ref="F95:F113" ca="1" si="184">INDIRECT(CONCATENATE("Sheet1!L",B95+1))</f>
-        <v>12</v>
+        <f t="shared" ref="F95:F113" ca="1" si="184">INDIRECT(CONCATENATE("Sheet1!E",B95+1))</f>
+        <v>13</v>
       </c>
       <c r="G95">
         <f t="shared" ref="G95:G113" ca="1" si="185">INDIRECT(CONCATENATE("Sheet1!N",B95+1))</f>
@@ -32154,11 +32707,11 @@
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="184"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="185"/>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H96" s="1">
         <v>1</v>
@@ -32184,12 +32737,12 @@
         <v>7</v>
       </c>
       <c r="F97">
-        <f t="shared" ref="F97:F113" ca="1" si="188">INDIRECT(CONCATENATE("Sheet1!K",B97+1))</f>
-        <v>27</v>
+        <f t="shared" ref="F97:F113" ca="1" si="188">INDIRECT(CONCATENATE("Sheet1!F",B97+1))</f>
+        <v>28</v>
       </c>
       <c r="G97">
         <f t="shared" ref="G97:G113" ca="1" si="189">INDIRECT(CONCATENATE("Sheet1!M",B97+1))</f>
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H97" s="1">
         <v>0</v>
@@ -32216,7 +32769,7 @@
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="188"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="189"/>
@@ -32246,8 +32799,8 @@
         <v>7</v>
       </c>
       <c r="F99">
-        <f t="shared" ref="F99:F113" ca="1" si="192">INDIRECT(CONCATENATE("Sheet1!L",B99+1))</f>
-        <v>12</v>
+        <f t="shared" ref="F99:F113" ca="1" si="192">INDIRECT(CONCATENATE("Sheet1!E",B99+1))</f>
+        <v>13</v>
       </c>
       <c r="G99">
         <f t="shared" ref="G99:G113" ca="1" si="193">INDIRECT(CONCATENATE("Sheet1!N",B99+1))</f>
@@ -32278,11 +32831,11 @@
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="192"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="193"/>
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H100" s="1">
         <v>1</v>
@@ -32308,12 +32861,12 @@
         <v>7</v>
       </c>
       <c r="F101">
-        <f t="shared" ref="F101:F113" ca="1" si="196">INDIRECT(CONCATENATE("Sheet1!K",B101+1))</f>
-        <v>30</v>
+        <f t="shared" ref="F101:F113" ca="1" si="196">INDIRECT(CONCATENATE("Sheet1!F",B101+1))</f>
+        <v>31</v>
       </c>
       <c r="G101">
         <f t="shared" ref="G101:G113" ca="1" si="197">INDIRECT(CONCATENATE("Sheet1!M",B101+1))</f>
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H101" s="1">
         <v>0</v>
@@ -32340,11 +32893,11 @@
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="196"/>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="197"/>
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H102" s="1">
         <v>1</v>
@@ -32370,8 +32923,8 @@
         <v>7</v>
       </c>
       <c r="F103">
-        <f t="shared" ref="F103:F113" ca="1" si="200">INDIRECT(CONCATENATE("Sheet1!L",B103+1))</f>
-        <v>9</v>
+        <f t="shared" ref="F103:F113" ca="1" si="200">INDIRECT(CONCATENATE("Sheet1!E",B103+1))</f>
+        <v>12</v>
       </c>
       <c r="G103">
         <f t="shared" ref="G103:G113" ca="1" si="201">INDIRECT(CONCATENATE("Sheet1!N",B103+1))</f>
@@ -32402,11 +32955,11 @@
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="200"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="201"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H104" s="1">
         <v>1</v>
@@ -32432,12 +32985,12 @@
         <v>8</v>
       </c>
       <c r="F105">
-        <f t="shared" ref="F105:F113" ca="1" si="204">INDIRECT(CONCATENATE("Sheet1!K",B105+1))</f>
-        <v>30</v>
+        <f t="shared" ref="F105:F113" ca="1" si="204">INDIRECT(CONCATENATE("Sheet1!F",B105+1))</f>
+        <v>31</v>
       </c>
       <c r="G105">
         <f t="shared" ref="G105:G113" ca="1" si="205">INDIRECT(CONCATENATE("Sheet1!M",B105+1))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H105" s="1">
         <v>0</v>
@@ -32464,11 +33017,11 @@
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="204"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="205"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H106" s="1">
         <v>1</v>
@@ -32494,8 +33047,8 @@
         <v>8</v>
       </c>
       <c r="F107">
-        <f t="shared" ref="F107:F113" ca="1" si="208">INDIRECT(CONCATENATE("Sheet1!L",B107+1))</f>
-        <v>9</v>
+        <f t="shared" ref="F107:F113" ca="1" si="208">INDIRECT(CONCATENATE("Sheet1!E",B107+1))</f>
+        <v>11</v>
       </c>
       <c r="G107">
         <f t="shared" ref="G107:G113" ca="1" si="209">INDIRECT(CONCATENATE("Sheet1!N",B107+1))</f>
@@ -32526,11 +33079,11 @@
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="208"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G108">
         <f t="shared" ca="1" si="209"/>
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H108" s="1">
         <v>1</v>
@@ -32556,12 +33109,12 @@
         <v>8</v>
       </c>
       <c r="F109">
-        <f t="shared" ref="F109:F113" ca="1" si="212">INDIRECT(CONCATENATE("Sheet1!K",B109+1))</f>
-        <v>30</v>
+        <f t="shared" ref="F109:F113" ca="1" si="212">INDIRECT(CONCATENATE("Sheet1!F",B109+1))</f>
+        <v>32</v>
       </c>
       <c r="G109">
         <f t="shared" ref="G109:G113" ca="1" si="213">INDIRECT(CONCATENATE("Sheet1!M",B109+1))</f>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H109" s="1">
         <v>0</v>
@@ -32588,11 +33141,11 @@
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="212"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G110">
         <f t="shared" ca="1" si="213"/>
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H110" s="1">
         <v>1</v>
@@ -32618,8 +33171,8 @@
         <v>8</v>
       </c>
       <c r="F111">
-        <f t="shared" ref="F111:F113" ca="1" si="216">INDIRECT(CONCATENATE("Sheet1!L",B111+1))</f>
-        <v>9</v>
+        <f t="shared" ref="F111:F113" ca="1" si="216">INDIRECT(CONCATENATE("Sheet1!E",B111+1))</f>
+        <v>12</v>
       </c>
       <c r="G111">
         <f t="shared" ref="G111:G113" ca="1" si="217">INDIRECT(CONCATENATE("Sheet1!N",B111+1))</f>
@@ -32650,11 +33203,11 @@
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="216"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G112">
         <f t="shared" ca="1" si="217"/>
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="H112" s="1">
         <v>1</v>
@@ -32680,12 +33233,12 @@
         <v>8</v>
       </c>
       <c r="F113">
-        <f t="shared" ref="F113" ca="1" si="220">INDIRECT(CONCATENATE("Sheet1!K",B113+1))</f>
-        <v>30</v>
+        <f t="shared" ref="F113" ca="1" si="220">INDIRECT(CONCATENATE("Sheet1!F",B113+1))</f>
+        <v>33</v>
       </c>
       <c r="G113">
         <f t="shared" ref="G113" ca="1" si="221">INDIRECT(CONCATENATE("Sheet1!M",B113+1))</f>
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="H113" s="1">
         <v>0</v>
